--- a/01_Versuch PVT/data/Daten-pVT_Roman-Zank.xlsx
+++ b/01_Versuch PVT/data/Daten-pVT_Roman-Zank.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D5D42-274B-46C1-8901-04F720ABB1F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD0539E-5635-4C54-BC81-64032CD29368}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11145" yWindow="1395" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
-    <sheet name="Diagramm" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
     <sheet name="Stoffmenge" sheetId="4" r:id="rId3"/>
+    <sheet name="Diagramm" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,9 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Messreihe T1= 303,15K</t>
   </si>
@@ -84,6 +83,12 @@
   </si>
   <si>
     <t>[kmol]</t>
+  </si>
+  <si>
+    <t>V*P/(R*T) [mol]</t>
+  </si>
+  <si>
+    <t>Vm [l/kmol]</t>
   </si>
 </sst>
 </file>
@@ -310,919 +315,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>30°C</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Daten!$G$4:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0.86514927521183205</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.82189181145124035</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77863434769064876</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73537688393005707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69211942016946548</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64886195640887379</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60560449264828209</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56234702888769061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51908956512709892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.47583210136650728</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.43257463760591564</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3893171738453241</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.34605971008473246</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.30280224632414088</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.25954478256354929</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.21628731880295773</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17302985504236612</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.15140112316207033</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12977239128177454</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.10814365940147873</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.6514927521182935E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.5700561581035303E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Daten!$C$4:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1715.593552</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1783.3928080000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1863.0586479999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1929.457656</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020.1234959999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2108.7893359999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2194.5885920000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2296.1210160000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2406.053688</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2513.3192800000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2619.2519520000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2676.6509599999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2680.717048</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2681.9826400000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2683.6484799999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2686.1809039999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2698.1135760000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2705.3130799999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2721.7794159999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2735.97892</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3482.7120880000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4850.0450080000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE6B-4E7A-9626-C3E9FD5A664F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>40°C</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Daten!$M$4:$M$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0.86514927521183205</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.82189181145124035</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77863434769064876</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73537688393005707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69211942016946548</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64886195640887379</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60560449264828209</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56234702888769061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51908956512709892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.47583210136650728</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.43257463760591564</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3893171738453241</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.34605971008473246</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.30280224632414088</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.25954478256354929</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.21628731880295773</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17302985504236612</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.15140112316207061</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12977239128177481</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.10814365940147901</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.8677800709212773E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.6514927521183199E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Daten!$I$4:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1809.7269679999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1884.3928080000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1965.7918159999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2049.5910720000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2147.2569119999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2242.7893359999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2345.3217599999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2460.1210160000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2585.7868560000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2717.586112</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2859.9851199999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3001.6509599999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3146.5836319999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3285.1160559999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3358.781896</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3365.0474880000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3368.1135760000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3375.7133279999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3385.5125840000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3416.97892</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4690.3118400000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4910.1784239999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2055-429D-99D1-F645951EAD32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>50°C</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Daten!$S$4:$S$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.86514927521183205</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.82189181145124035</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77863434769064876</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73537688393005707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69211942016946548</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64886195640887379</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60560449264828209</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56234702888769061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51908956512709892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.47583210136650728</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.43257463760591564</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3893171738453241</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.34605971008473246</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.30280224632414088</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.25954478256354929</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.21628731880295773</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17302985504236612</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.12977239128177481</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.10814365940147901</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Daten!$O$4:$O$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1900.7269679999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1983.2593919999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2070.7918159999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2162.3242399999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2265.2569119999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2372.7893359999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2488.4551759999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2619.2544320000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2758.65344</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2911.7195280000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3075.2519520000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3260.7843760000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3451.1833839999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3638.7158079999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3834.381648</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3997.31432</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4118.1135759999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4268.6459999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4772.8455039999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2055-429D-99D1-F645951EAD32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>55°C</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Daten!$Y$4:$Y$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.86514927521183205</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.82189181145124035</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77863434769064876</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73537688393005707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69211942016946548</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64886195640887379</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60560449264828209</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56234702888769061</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51908956512709892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.47583210136650728</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.43257463760591564</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3893171738453241</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.34605971008473246</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.30280224632414088</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.25954478256354929</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.21628731880295773</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.19465858692266222</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1730298550423664</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15140112316207061</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.12977239128177481</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Daten!$U$4:$U$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1950.7269679999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2031.3928080000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2122.9252320000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2217.5910720000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2327.1234960000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2439.6559200000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2561.5885920000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2696.2544320000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2848.7868560000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3011.3192800000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3181.9851199999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3380.7843760000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3594.4502160000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3819.849224</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4049.6484799999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4271.4477360000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4369.5138239999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4476.4464959999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4593.912832</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4800.5125840000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2055-429D-99D1-F645951EAD32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="88988552"/>
-        <c:axId val="88986912"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="88988552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="88986912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="88986912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="88988552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
@@ -1294,7 +386,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1372,61 +464,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.0328650445282441E-6</c:v>
+                  <c:v>3.0165611619253548E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0078689040513623E-6</c:v>
+                  <c:v>2.9901675457967976E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9766832430754436E-6</c:v>
+                  <c:v>2.9578173217778154E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9367687711393449E-6</c:v>
+                  <c:v>2.9169711994072657E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8960607709341379E-6</c:v>
+                  <c:v>2.8760726343404669E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.844798844749804E-6</c:v>
+                  <c:v>2.8243131221286416E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7851255189129315E-6</c:v>
+                  <c:v>2.7645233399874634E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7223574328265417E-6</c:v>
+                  <c:v>2.7019881665096862E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6472103057420765E-6</c:v>
+                  <c:v>2.6268833871722414E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5610331357170195E-6</c:v>
+                  <c:v>2.5415849328978591E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4591441059636369E-6</c:v>
+                  <c:v>2.4402993585395186E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3467805030580381E-6</c:v>
+                  <c:v>2.3287721236375747E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2079130559642539E-6</c:v>
+                  <c:v>2.1908892616620168E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.036907713971622E-6</c:v>
+                  <c:v>2.0211966998270203E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8397159390984488E-6</c:v>
+                  <c:v>1.8256141393406259E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5981659339821758E-6</c:v>
+                  <c:v>1.5859909567137847E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3172569267181782E-6</c:v>
+                  <c:v>1.307135815180281E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0241275841099298E-6</c:v>
+                  <c:v>1.0161873815435878E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5362259739974268E-7</c:v>
+                  <c:v>9.4684695787646455E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,7 +602,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1591,64 +683,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.1122178714389775E-6</c:v>
+                  <c:v>3.0959139888360886E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0802386821939516E-6</c:v>
+                  <c:v>3.0627384757377342E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0509574890638908E-6</c:v>
+                  <c:v>3.0322821326278549E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0109636643008805E-6</c:v>
+                  <c:v>2.9915260484184763E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9747787752295858E-6</c:v>
+                  <c:v>2.954621247647833E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9245484357950914E-6</c:v>
+                  <c:v>2.9039039091226025E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8662241080157014E-6</c:v>
+                  <c:v>2.8457701462048052E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8017896125641858E-6</c:v>
+                  <c:v>2.7814203462473307E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7329113588056686E-6</c:v>
+                  <c:v>2.7127114834768954E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6483212453188262E-6</c:v>
+                  <c:v>2.6285236735867475E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5440516307581216E-6</c:v>
+                  <c:v>2.5249951445989011E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4324815561216301E-6</c:v>
+                  <c:v>2.4144731767011671E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2986926899501331E-6</c:v>
+                  <c:v>2.2818382866359783E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.137447745667522E-6</c:v>
+                  <c:v>2.1218108400802061E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9420810858132951E-6</c:v>
+                  <c:v>1.9281063292965337E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7068793068498807E-6</c:v>
+                  <c:v>1.6947572642652656E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5715430605536265E-6</c:v>
+                  <c:v>1.5602997337196863E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4312075861619937E-6</c:v>
+                  <c:v>1.4208747358889941E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2850793554058776E-6</c:v>
+                  <c:v>1.2758898943024315E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1507746958594609E-6</c:v>
+                  <c:v>1.1428027324828535E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,22 +895,22 @@
                         <c:v>2.6611014675472131E-6</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2.6028346299386866E-6</c:v>
+                        <c:v>2.602834629938687E-6</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>2.5648401618623086E-6</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2.5100759275621359E-6</c:v>
+                        <c:v>2.5100759275621363E-6</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>2.4380553215374556E-6</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2.3686480161336984E-6</c:v>
+                        <c:v>2.368648016133698E-6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2.2911259421015578E-6</c:v>
+                        <c:v>2.2911259421015574E-6</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>2.1938288877697483E-6</c:v>
@@ -1830,31 +922,31 @@
                         <c:v>1.9115983829639624E-6</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>1.7017798072527757E-6</c:v>
+                        <c:v>1.7017798072527755E-6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>1.4897603294665876E-6</c:v>
+                        <c:v>1.4897603294665878E-6</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>1.2777305599361606E-6</c:v>
+                        <c:v>1.2777305599361608E-6</c:v>
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>1.06578024163015E-6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>8.5641175832731413E-7</c:v>
+                        <c:v>8.5641175832731423E-7</c:v>
                       </c:pt>
                       <c:pt idx="17">
                         <c:v>7.5135984201804258E-7</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>6.479426726611365E-7</c:v>
+                        <c:v>6.479426726611364E-7</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>5.427691541754393E-7</c:v>
+                        <c:v>5.427691541754392E-7</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>5.5272609899796652E-7</c:v>
+                        <c:v>5.5272609899796663E-7</c:v>
                       </c:pt>
                       <c:pt idx="21">
                         <c:v>6.7351336855091149E-7</c:v>
@@ -1992,70 +1084,70 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="22"/>
                       <c:pt idx="0">
-                        <c:v>2.8884428995507087E-6</c:v>
+                        <c:v>2.8721390169478194E-6</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2.8586062366322722E-6</c:v>
+                        <c:v>2.8411060301760548E-6</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2.8267064002141574E-6</c:v>
+                        <c:v>2.8078404789165287E-6</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2.784331990643825E-6</c:v>
+                        <c:v>2.7648943747614205E-6</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.7462426337266726E-6</c:v>
+                        <c:v>2.7262544971330012E-6</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2.690060832273873E-6</c:v>
+                        <c:v>2.6695751096527109E-6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2.6262611594376428E-6</c:v>
+                        <c:v>2.6055107633976024E-6</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2.5583351396020547E-6</c:v>
+                        <c:v>2.5378282431073827E-6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2.4824738370753929E-6</c:v>
+                        <c:v>2.4622739617466193E-6</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2.3916942030895138E-6</c:v>
+                        <c:v>2.3721295439660473E-6</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2.2885355281055593E-6</c:v>
+                        <c:v>2.2694790419463384E-6</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>2.1618090635291179E-6</c:v>
+                        <c:v>2.1437054016778584E-6</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>2.0142921583020639E-6</c:v>
+                        <c:v>1.9975224504819493E-6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>1.8402714088868245E-6</c:v>
+                        <c:v>1.8247827204140802E-6</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>1.6130842654413938E-6</c:v>
+                        <c:v>1.5991730305451628E-6</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>1.3474110009442574E-6</c:v>
+                        <c:v>1.3351301543083154E-6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>1.0791984459859772E-6</c:v>
+                        <c:v>1.0690773344480802E-6</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>9.4652051939123219E-7</c:v>
+                        <c:v>9.3755338395964335E-7</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>8.1392194562339617E-7</c:v>
+                        <c:v>8.0594998224678879E-7</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>6.8461651417235538E-7</c:v>
+                        <c:v>6.7786734199096482E-7</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>7.6863131966409462E-7</c:v>
+                        <c:v>7.6298848237361446E-7</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>7.8479945814715665E-7</c:v>
+                        <c:v>7.792730771609828E-7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2126,7 +1218,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1556415679"/>
@@ -2188,7 +1280,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1556498335"/>
@@ -2230,7 +1322,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2267,7 +1359,920 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>30°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daten!$G$4:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.87059522422864388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82706546301721162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78353570180577936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7400059405943471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69647617938291484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65294641817148269</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60941665696005043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56588689574861828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52235713453718602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47882737332575381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43529761211432155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3917678509028894</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3482380896914572</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30470832848002499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26117856726859284</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21764880605716069</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17411904484572849</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15235416424001239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13058928363429631</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10882440302858021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.7059522422864119E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6177082120006331E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daten!$C$4:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1715.593552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1783.3928080000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1863.0586479999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1929.457656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020.1234959999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2108.7893359999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2194.5885920000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2296.1210160000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2406.053688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2513.3192800000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2619.2519520000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2676.6509599999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2680.717048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2681.9826400000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2683.6484799999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2686.1809039999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2698.1135760000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2705.3130799999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2721.7794159999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2735.97892</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3482.7120880000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4850.0450080000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE6B-4E7A-9626-C3E9FD5A664F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>40°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daten!$M$4:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.87059522422864388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82706546301721162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78353570180577936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7400059405943471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69647617938291484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65294641817148269</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60941665696005043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56588689574861828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52235713453718602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47882737332575381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43529761211432155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3917678509028894</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3482380896914572</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30470832848002499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26117856726859284</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21764880605716069</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17411904484572849</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15235416424001266</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13058928363429659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10882440302858049</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.923601048343599E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.7059522422864383E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daten!$I$4:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1809.7269679999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1884.3928080000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1965.7918159999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2049.5910720000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2147.2569119999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2242.7893359999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2345.3217599999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2460.1210160000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2585.7868560000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2717.586112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2859.9851199999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3001.6509599999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3146.5836319999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3285.1160559999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3358.781896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3365.0474880000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3368.1135760000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3375.7133279999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3385.5125840000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3416.97892</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4690.3118400000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4910.1784239999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2055-429D-99D1-F645951EAD32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>50°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daten!$S$4:$S$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.87059522422864388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82706546301721162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78353570180577936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7400059405943471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69647617938291484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65294641817148269</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60941665696005043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56588689574861828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52235713453718602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47882737332575381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43529761211432155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3917678509028894</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3482380896914572</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30470832848002499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26117856726859284</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21764880605716069</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17411904484572849</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13058928363429659</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10882440302858049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daten!$O$4:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1900.7269679999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983.2593919999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2070.7918159999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2162.3242399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2265.2569119999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2372.7893359999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2488.4551759999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2619.2544320000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2758.65344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2911.7195280000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3075.2519520000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3260.7843760000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3451.1833839999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3638.7158079999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3834.381648</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3997.31432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4118.1135759999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4268.6459999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4772.8455039999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2055-429D-99D1-F645951EAD32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>55°C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daten!$Y$4:$Y$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.87059522422864388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82706546301721162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78353570180577936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7400059405943471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69647617938291484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65294641817148269</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60941665696005043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56588689574861828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52235713453718602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47882737332575381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43529761211432155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3917678509028894</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3482380896914572</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30470832848002499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26117856726859284</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21764880605716069</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19588392545144487</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17411904484572877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15235416424001266</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13058928363429659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daten!$U$4:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1950.7269679999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2031.3928080000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2122.9252320000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2217.5910720000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2327.1234960000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2439.6559200000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2561.5885920000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2696.2544320000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2848.7868560000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3011.3192800000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3181.9851199999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3380.7843760000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3594.4502160000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3819.849224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4049.6484799999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4271.4477360000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4369.5138239999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4476.4464959999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4593.912832</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4800.5125840000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2055-429D-99D1-F645951EAD32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="88988552"/>
+        <c:axId val="88986912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88988552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88986912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88986912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88988552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3386,10 +3391,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{29BCCF49-055A-4CDB-AB26-126BDAF98EA6}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3397,10 +3402,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{29BCCF49-055A-4CDB-AB26-126BDAF98EA6}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3411,13 +3416,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9300882" cy="6011155"/>
+    <xdr:ext cx="9290137" cy="6002055"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF494D1A-E1E7-4829-AA8E-76151BBE3403}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,13 +3449,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9300882" cy="6011155"/>
+    <xdr:ext cx="9290137" cy="6002055"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF494D1A-E1E7-4829-AA8E-76151BBE3403}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3738,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="P7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3748,16 +3753,19 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="9" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3811,7 +3819,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>4</v>
@@ -3826,10 +3834,10 @@
         <v>6</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>4</v>
@@ -3847,7 +3855,7 @@
         <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T3" s="10" t="s">
         <v>4</v>
@@ -3886,12 +3894,12 @@
         <v>4</v>
       </c>
       <c r="F4" s="7">
-        <f>E4*10^(-6)*C4/8.314/303.15</f>
+        <f>E4*C4/8.314/303.15*10^-6</f>
         <v>2.7227439636205382E-6</v>
       </c>
       <c r="G4" s="21">
-        <f>E4*10^-6/$O$29</f>
-        <v>0.86514927521183205</v>
+        <f>E4*10^-6/($O$29)</f>
+        <v>0.87059522422864388</v>
       </c>
       <c r="H4" s="5">
         <v>1820</v>
@@ -3907,18 +3915,18 @@
         <v>4</v>
       </c>
       <c r="L4" s="7">
-        <f>K4*10^(-6)*H4/8.314/303.15</f>
-        <v>2.8884428995507087E-6</v>
+        <f>K4*10^(-6)*I4/8.314/303.15</f>
+        <v>2.8721390169478194E-6</v>
       </c>
       <c r="M4" s="21">
         <f>K4*10^-6/$O$29</f>
-        <v>0.86514927521183205</v>
+        <v>0.87059522422864388</v>
       </c>
       <c r="N4" s="5">
         <v>1911</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" ref="O4:O22" si="2">N4-P4*9.81*13.6</f>
+        <f>N4-P4*9.81*13.6</f>
         <v>1900.7269679999999</v>
       </c>
       <c r="P4" s="15">
@@ -3928,18 +3936,18 @@
         <v>4</v>
       </c>
       <c r="R4" s="7">
-        <f>Q4*10^(-6)*N4/8.314/303.15</f>
-        <v>3.0328650445282441E-6</v>
+        <f>Q4*10^(-6)*O4/8.314/303.15</f>
+        <v>3.0165611619253548E-6</v>
       </c>
       <c r="S4" s="21">
         <f>Q4*10^-6/$O$29</f>
-        <v>0.86514927521183205</v>
+        <v>0.87059522422864388</v>
       </c>
       <c r="T4" s="5">
         <v>1961</v>
       </c>
       <c r="U4" s="6">
-        <f t="shared" ref="U4:U23" si="3">T4-V4*9.81*13.6</f>
+        <f t="shared" ref="U4:U23" si="2">T4-V4*9.81*13.6</f>
         <v>1950.7269679999999</v>
       </c>
       <c r="V4" s="15">
@@ -3949,12 +3957,12 @@
         <v>4</v>
       </c>
       <c r="X4" s="7">
-        <f>W4*10^(-6)*T4/8.314/303.15</f>
-        <v>3.1122178714389775E-6</v>
+        <f>W4*10^(-6)*U4/8.314/303.15</f>
+        <v>3.0959139888360886E-6</v>
       </c>
       <c r="Y4" s="21">
         <f>W4*10^-6/$O$29</f>
-        <v>0.86514927521183205</v>
+        <v>0.87059522422864388</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3977,12 +3985,12 @@
         <v>3.8</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F25" si="4">E5*10^(-6)*C5/8.314/303.15</f>
+        <f t="shared" ref="F5:F25" si="3">E5*C5/8.314/303.15*10^-6</f>
         <v>2.6888279553343568E-6</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" ref="G5:G25" si="5">E5*10^-6/$O$29</f>
-        <v>0.82189181145124035</v>
+        <f t="shared" ref="G5:G25" si="4">E5*10^-6/($O$29)</f>
+        <v>0.82706546301721162</v>
       </c>
       <c r="H5" s="5">
         <v>1896</v>
@@ -3999,18 +4007,18 @@
         <v>3.8</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" ref="L5:L25" si="6">K5*10^(-6)*H5/8.314/303.15</f>
-        <v>2.8586062366322722E-6</v>
+        <f t="shared" ref="L5:L25" si="5">K5*10^(-6)*I5/8.314/303.15</f>
+        <v>2.8411060301760548E-6</v>
       </c>
       <c r="M5" s="21">
-        <f t="shared" ref="M5:M25" si="7">K5*10^-6/$O$29</f>
-        <v>0.82189181145124035</v>
+        <f t="shared" ref="M5:M25" si="6">K5*10^-6/$O$29</f>
+        <v>0.82706546301721162</v>
       </c>
       <c r="N5" s="5">
         <v>1995</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O4:O22" si="7">N5-P5*9.81*13.6</f>
         <v>1983.2593919999999</v>
       </c>
       <c r="P5" s="15">
@@ -4021,18 +4029,18 @@
         <v>3.8</v>
       </c>
       <c r="R5" s="7">
-        <f t="shared" ref="R5:R22" si="8">Q5*10^(-6)*N5/8.314/303.15</f>
-        <v>3.0078689040513623E-6</v>
+        <f t="shared" ref="R5:R22" si="8">Q5*10^(-6)*O5/8.314/303.15</f>
+        <v>2.9901675457967976E-6</v>
       </c>
       <c r="S5" s="21">
-        <f t="shared" ref="S5:S22" si="9">Q5*10^-6/$O$29</f>
-        <v>0.82189181145124035</v>
+        <f>Q5*10^-6/$O$29</f>
+        <v>0.82706546301721162</v>
       </c>
       <c r="T5" s="5">
         <v>2043</v>
       </c>
       <c r="U5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2031.3928080000001</v>
       </c>
       <c r="V5" s="15">
@@ -4043,17 +4051,17 @@
         <v>3.8</v>
       </c>
       <c r="X5" s="7">
-        <f t="shared" ref="X5:X23" si="10">W5*10^(-6)*T5/8.314/303.15</f>
-        <v>3.0802386821939516E-6</v>
+        <f t="shared" ref="X5:X23" si="9">W5*10^(-6)*U5/8.314/303.15</f>
+        <v>3.0627384757377342E-6</v>
       </c>
       <c r="Y5" s="21">
-        <f t="shared" ref="Y5:Y23" si="11">W5*10^-6/$O$29</f>
-        <v>0.82189181145124035</v>
+        <f t="shared" ref="Y5:Y23" si="10">W5*10^-6/$O$29</f>
+        <v>0.82706546301721162</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" ref="A6:A25" si="12">A5+1</f>
+        <f t="shared" ref="A6:A25" si="11">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -4067,16 +4075,16 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" ref="E6:E20" si="13">E5-0.2</f>
+        <f t="shared" ref="E6:E20" si="12">E5-0.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="F6" s="7">
+        <f t="shared" si="3"/>
+        <v>2.6611014675472131E-6</v>
+      </c>
+      <c r="G6" s="21">
         <f t="shared" si="4"/>
-        <v>2.6611014675472131E-6</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="5"/>
-        <v>0.77863434769064876</v>
+        <v>0.78353570180577936</v>
       </c>
       <c r="H6" s="5">
         <v>1979</v>
@@ -4089,44 +4097,44 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" ref="K6:K20" si="14">K5-0.2</f>
+        <f t="shared" ref="K6:K20" si="13">K5-0.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="L6" s="7">
+        <f t="shared" si="5"/>
+        <v>2.8078404789165287E-6</v>
+      </c>
+      <c r="M6" s="21">
         <f t="shared" si="6"/>
-        <v>2.8267064002141574E-6</v>
-      </c>
-      <c r="M6" s="21">
-        <f t="shared" si="7"/>
-        <v>0.77863434769064876</v>
+        <v>0.78353570180577936</v>
       </c>
       <c r="N6" s="5">
         <v>2084</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2070.7918159999999</v>
       </c>
       <c r="P6" s="15">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" ref="Q6:Q20" si="15">Q5-0.2</f>
+        <f t="shared" ref="Q6:Q20" si="14">Q5-0.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" si="8"/>
-        <v>2.9766832430754436E-6</v>
+        <v>2.9578173217778154E-6</v>
       </c>
       <c r="S6" s="21">
-        <f t="shared" si="9"/>
-        <v>0.77863434769064876</v>
+        <f t="shared" ref="S5:S22" si="15">Q6*10^-6/$O$29</f>
+        <v>0.78353570180577936</v>
       </c>
       <c r="T6" s="5">
         <v>2136</v>
       </c>
       <c r="U6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2122.9252320000001</v>
       </c>
       <c r="V6" s="15">
@@ -4137,17 +4145,17 @@
         <v>3.5999999999999996</v>
       </c>
       <c r="X6" s="7">
+        <f t="shared" si="9"/>
+        <v>3.0322821326278549E-6</v>
+      </c>
+      <c r="Y6" s="21">
         <f t="shared" si="10"/>
-        <v>3.0509574890638908E-6</v>
-      </c>
-      <c r="Y6" s="21">
-        <f t="shared" si="11"/>
-        <v>0.77863434769064876</v>
+        <v>0.78353570180577936</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B7" s="5">
@@ -4161,16 +4169,16 @@
         <v>0.109</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.3999999999999995</v>
       </c>
       <c r="F7" s="7">
+        <f t="shared" si="3"/>
+        <v>2.602834629938687E-6</v>
+      </c>
+      <c r="G7" s="21">
         <f t="shared" si="4"/>
-        <v>2.6028346299386866E-6</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="5"/>
-        <v>0.73537688393005707</v>
+        <v>0.7400059405943471</v>
       </c>
       <c r="H7" s="5">
         <v>2064</v>
@@ -4183,44 +4191,44 @@
         <v>0.108</v>
       </c>
       <c r="K7" s="6">
+        <f t="shared" si="13"/>
+        <v>3.3999999999999995</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="5"/>
+        <v>2.7648943747614205E-6</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="6"/>
+        <v>0.7400059405943471</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2177</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="7"/>
+        <v>2162.3242399999999</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="Q7" s="6">
         <f t="shared" si="14"/>
         <v>3.3999999999999995</v>
       </c>
-      <c r="L7" s="7">
-        <f t="shared" si="6"/>
-        <v>2.784331990643825E-6</v>
-      </c>
-      <c r="M7" s="21">
-        <f t="shared" si="7"/>
-        <v>0.73537688393005707</v>
-      </c>
-      <c r="N7" s="5">
-        <v>2177</v>
-      </c>
-      <c r="O7" s="6">
-        <f t="shared" si="2"/>
-        <v>2162.3242399999999</v>
-      </c>
-      <c r="P7" s="15">
-        <v>0.11</v>
-      </c>
-      <c r="Q7" s="6">
-        <f t="shared" si="15"/>
-        <v>3.3999999999999995</v>
-      </c>
       <c r="R7" s="7">
         <f t="shared" si="8"/>
-        <v>2.9367687711393449E-6</v>
+        <v>2.9169711994072657E-6</v>
       </c>
       <c r="S7" s="21">
-        <f t="shared" si="9"/>
-        <v>0.73537688393005707</v>
+        <f t="shared" si="15"/>
+        <v>0.7400059405943471</v>
       </c>
       <c r="T7" s="5">
         <v>2232</v>
       </c>
       <c r="U7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2217.5910720000002</v>
       </c>
       <c r="V7" s="15">
@@ -4231,17 +4239,17 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="X7" s="7">
+        <f t="shared" si="9"/>
+        <v>2.9915260484184763E-6</v>
+      </c>
+      <c r="Y7" s="21">
         <f t="shared" si="10"/>
-        <v>3.0109636643008805E-6</v>
-      </c>
-      <c r="Y7" s="21">
-        <f t="shared" si="11"/>
-        <v>0.73537688393005707</v>
+        <v>0.7400059405943471</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B8" s="5">
@@ -4255,16 +4263,16 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.1999999999999993</v>
       </c>
       <c r="F8" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5648401618623086E-6</v>
+      </c>
+      <c r="G8" s="21">
         <f t="shared" si="4"/>
-        <v>2.5648401618623086E-6</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="5"/>
-        <v>0.69211942016946548</v>
+        <v>0.69647617938291484</v>
       </c>
       <c r="H8" s="5">
         <v>2163</v>
@@ -4277,44 +4285,44 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="K8" s="6">
+        <f t="shared" si="13"/>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="5"/>
+        <v>2.7262544971330012E-6</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="6"/>
+        <v>0.69647617938291484</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2281</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="7"/>
+        <v>2265.2569119999998</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Q8" s="6">
         <f t="shared" si="14"/>
         <v>3.1999999999999993</v>
       </c>
-      <c r="L8" s="7">
-        <f t="shared" si="6"/>
-        <v>2.7462426337266726E-6</v>
-      </c>
-      <c r="M8" s="21">
-        <f t="shared" si="7"/>
-        <v>0.69211942016946548</v>
-      </c>
-      <c r="N8" s="5">
-        <v>2281</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" si="2"/>
-        <v>2265.2569119999998</v>
-      </c>
-      <c r="P8" s="15">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="Q8" s="6">
-        <f t="shared" si="15"/>
-        <v>3.1999999999999993</v>
-      </c>
       <c r="R8" s="7">
         <f t="shared" si="8"/>
-        <v>2.8960607709341379E-6</v>
+        <v>2.8760726343404669E-6</v>
       </c>
       <c r="S8" s="21">
-        <f t="shared" si="9"/>
-        <v>0.69211942016946548</v>
+        <f t="shared" si="15"/>
+        <v>0.69647617938291484</v>
       </c>
       <c r="T8" s="5">
         <v>2343</v>
       </c>
       <c r="U8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2327.1234960000002</v>
       </c>
       <c r="V8" s="15">
@@ -4325,17 +4333,17 @@
         <v>3.1999999999999993</v>
       </c>
       <c r="X8" s="7">
+        <f t="shared" si="9"/>
+        <v>2.954621247647833E-6</v>
+      </c>
+      <c r="Y8" s="21">
         <f t="shared" si="10"/>
-        <v>2.9747787752295858E-6</v>
-      </c>
-      <c r="Y8" s="21">
-        <f t="shared" si="11"/>
-        <v>0.69211942016946548</v>
+        <v>0.69647617938291484</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="B9" s="5">
@@ -4349,16 +4357,16 @@
         <v>0.129</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.9999999999999991</v>
       </c>
       <c r="F9" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5100759275621363E-6</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="4"/>
-        <v>2.5100759275621359E-6</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="5"/>
-        <v>0.64886195640887379</v>
+        <v>0.65294641817148269</v>
       </c>
       <c r="H9" s="5">
         <v>2260</v>
@@ -4371,44 +4379,44 @@
         <v>0.129</v>
       </c>
       <c r="K9" s="6">
+        <f t="shared" si="13"/>
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="5"/>
+        <v>2.6695751096527109E-6</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="6"/>
+        <v>0.65294641817148269</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2390</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="7"/>
+        <v>2372.7893359999998</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0.129</v>
+      </c>
+      <c r="Q9" s="6">
         <f t="shared" si="14"/>
         <v>2.9999999999999991</v>
       </c>
-      <c r="L9" s="7">
-        <f t="shared" si="6"/>
-        <v>2.690060832273873E-6</v>
-      </c>
-      <c r="M9" s="21">
-        <f t="shared" si="7"/>
-        <v>0.64886195640887379</v>
-      </c>
-      <c r="N9" s="5">
-        <v>2390</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="2"/>
-        <v>2372.7893359999998</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0.129</v>
-      </c>
-      <c r="Q9" s="6">
-        <f t="shared" si="15"/>
-        <v>2.9999999999999991</v>
-      </c>
       <c r="R9" s="7">
         <f t="shared" si="8"/>
-        <v>2.844798844749804E-6</v>
+        <v>2.8243131221286416E-6</v>
       </c>
       <c r="S9" s="21">
-        <f t="shared" si="9"/>
-        <v>0.64886195640887379</v>
+        <f t="shared" si="15"/>
+        <v>0.65294641817148269</v>
       </c>
       <c r="T9" s="5">
         <v>2457</v>
       </c>
       <c r="U9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2439.6559200000002</v>
       </c>
       <c r="V9" s="15">
@@ -4419,17 +4427,17 @@
         <v>2.9999999999999991</v>
       </c>
       <c r="X9" s="7">
+        <f t="shared" si="9"/>
+        <v>2.9039039091226025E-6</v>
+      </c>
+      <c r="Y9" s="21">
         <f t="shared" si="10"/>
-        <v>2.9245484357950914E-6</v>
-      </c>
-      <c r="Y9" s="21">
-        <f t="shared" si="11"/>
-        <v>0.64886195640887379</v>
+        <v>0.65294641817148269</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="B10" s="5">
@@ -4443,16 +4451,16 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.7999999999999989</v>
       </c>
       <c r="F10" s="7">
+        <f t="shared" si="3"/>
+        <v>2.4380553215374556E-6</v>
+      </c>
+      <c r="G10" s="21">
         <f t="shared" si="4"/>
-        <v>2.4380553215374556E-6</v>
-      </c>
-      <c r="G10" s="21">
-        <f t="shared" si="5"/>
-        <v>0.60560449264828209</v>
+        <v>0.60941665696005043</v>
       </c>
       <c r="H10" s="5">
         <v>2364</v>
@@ -4465,44 +4473,44 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="K10" s="6">
+        <f t="shared" si="13"/>
+        <v>2.7999999999999989</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="5"/>
+        <v>2.6055107633976024E-6</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="6"/>
+        <v>0.60941665696005043</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2507</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="7"/>
+        <v>2488.4551759999999</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="Q10" s="6">
         <f t="shared" si="14"/>
         <v>2.7999999999999989</v>
       </c>
-      <c r="L10" s="7">
-        <f t="shared" si="6"/>
-        <v>2.6262611594376428E-6</v>
-      </c>
-      <c r="M10" s="21">
-        <f t="shared" si="7"/>
-        <v>0.60560449264828209</v>
-      </c>
-      <c r="N10" s="5">
-        <v>2507</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="2"/>
-        <v>2488.4551759999999</v>
-      </c>
-      <c r="P10" s="15">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="Q10" s="6">
-        <f t="shared" si="15"/>
-        <v>2.7999999999999989</v>
-      </c>
       <c r="R10" s="7">
         <f t="shared" si="8"/>
-        <v>2.7851255189129315E-6</v>
+        <v>2.7645233399874634E-6</v>
       </c>
       <c r="S10" s="21">
-        <f t="shared" si="9"/>
-        <v>0.60560449264828209</v>
+        <f t="shared" si="15"/>
+        <v>0.60941665696005043</v>
       </c>
       <c r="T10" s="5">
         <v>2580</v>
       </c>
       <c r="U10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2561.5885920000001</v>
       </c>
       <c r="V10" s="15">
@@ -4513,17 +4521,17 @@
         <v>2.7999999999999989</v>
       </c>
       <c r="X10" s="7">
+        <f t="shared" si="9"/>
+        <v>2.8457701462048052E-6</v>
+      </c>
+      <c r="Y10" s="21">
         <f t="shared" si="10"/>
-        <v>2.8662241080157014E-6</v>
-      </c>
-      <c r="Y10" s="21">
-        <f t="shared" si="11"/>
-        <v>0.60560449264828209</v>
+        <v>0.60941665696005043</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="B11" s="5">
@@ -4537,16 +4545,16 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.5999999999999988</v>
       </c>
       <c r="F11" s="7">
+        <f t="shared" si="3"/>
+        <v>2.368648016133698E-6</v>
+      </c>
+      <c r="G11" s="21">
         <f t="shared" si="4"/>
-        <v>2.3686480161336984E-6</v>
-      </c>
-      <c r="G11" s="21">
-        <f t="shared" si="5"/>
-        <v>0.56234702888769061</v>
+        <v>0.56588689574861828</v>
       </c>
       <c r="H11" s="5">
         <v>2480</v>
@@ -4559,44 +4567,44 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="K11" s="6">
+        <f t="shared" si="13"/>
+        <v>2.5999999999999988</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="5"/>
+        <v>2.5378282431073827E-6</v>
+      </c>
+      <c r="M11" s="21">
+        <f t="shared" si="6"/>
+        <v>0.56588689574861828</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2639</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="7"/>
+        <v>2619.2544320000002</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="Q11" s="6">
         <f t="shared" si="14"/>
         <v>2.5999999999999988</v>
       </c>
-      <c r="L11" s="7">
-        <f t="shared" si="6"/>
-        <v>2.5583351396020547E-6</v>
-      </c>
-      <c r="M11" s="21">
-        <f t="shared" si="7"/>
-        <v>0.56234702888769061</v>
-      </c>
-      <c r="N11" s="5">
-        <v>2639</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="2"/>
-        <v>2619.2544320000002</v>
-      </c>
-      <c r="P11" s="15">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="Q11" s="6">
-        <f t="shared" si="15"/>
-        <v>2.5999999999999988</v>
-      </c>
       <c r="R11" s="7">
         <f t="shared" si="8"/>
-        <v>2.7223574328265417E-6</v>
+        <v>2.7019881665096862E-6</v>
       </c>
       <c r="S11" s="21">
-        <f t="shared" si="9"/>
-        <v>0.56234702888769061</v>
+        <f t="shared" si="15"/>
+        <v>0.56588689574861828</v>
       </c>
       <c r="T11" s="5">
         <v>2716</v>
       </c>
       <c r="U11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2696.2544320000002</v>
       </c>
       <c r="V11" s="15">
@@ -4607,17 +4615,17 @@
         <v>2.5999999999999988</v>
       </c>
       <c r="X11" s="7">
+        <f t="shared" si="9"/>
+        <v>2.7814203462473307E-6</v>
+      </c>
+      <c r="Y11" s="21">
         <f t="shared" si="10"/>
-        <v>2.8017896125641858E-6</v>
-      </c>
-      <c r="Y11" s="21">
-        <f t="shared" si="11"/>
-        <v>0.56234702888769061</v>
+        <v>0.56588689574861828</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="B12" s="5">
@@ -4631,16 +4639,16 @@
         <v>0.157</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.3999999999999986</v>
       </c>
       <c r="F12" s="7">
+        <f t="shared" si="3"/>
+        <v>2.2911259421015574E-6</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="4"/>
-        <v>2.2911259421015578E-6</v>
-      </c>
-      <c r="G12" s="21">
-        <f t="shared" si="5"/>
-        <v>0.51908956512709892</v>
+        <v>0.52235713453718602</v>
       </c>
       <c r="H12" s="5">
         <v>2607</v>
@@ -4653,44 +4661,44 @@
         <v>0.159</v>
       </c>
       <c r="K12" s="6">
+        <f t="shared" si="13"/>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="5"/>
+        <v>2.4622739617466193E-6</v>
+      </c>
+      <c r="M12" s="21">
+        <f t="shared" si="6"/>
+        <v>0.52235713453718602</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2780</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="7"/>
+        <v>2758.65344</v>
+      </c>
+      <c r="P12" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="Q12" s="6">
         <f t="shared" si="14"/>
         <v>2.3999999999999986</v>
       </c>
-      <c r="L12" s="7">
-        <f t="shared" si="6"/>
-        <v>2.4824738370753929E-6</v>
-      </c>
-      <c r="M12" s="21">
-        <f t="shared" si="7"/>
-        <v>0.51908956512709892</v>
-      </c>
-      <c r="N12" s="5">
-        <v>2780</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="2"/>
-        <v>2758.65344</v>
-      </c>
-      <c r="P12" s="15">
-        <v>0.16</v>
-      </c>
-      <c r="Q12" s="6">
-        <f t="shared" si="15"/>
-        <v>2.3999999999999986</v>
-      </c>
       <c r="R12" s="7">
         <f t="shared" si="8"/>
-        <v>2.6472103057420765E-6</v>
+        <v>2.6268833871722414E-6</v>
       </c>
       <c r="S12" s="21">
-        <f t="shared" si="9"/>
-        <v>0.51908956512709892</v>
+        <f t="shared" si="15"/>
+        <v>0.52235713453718602</v>
       </c>
       <c r="T12" s="5">
         <v>2870</v>
       </c>
       <c r="U12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2848.7868560000002</v>
       </c>
       <c r="V12" s="15">
@@ -4701,17 +4709,17 @@
         <v>2.3999999999999986</v>
       </c>
       <c r="X12" s="7">
+        <f t="shared" si="9"/>
+        <v>2.7127114834768954E-6</v>
+      </c>
+      <c r="Y12" s="21">
         <f t="shared" si="10"/>
-        <v>2.7329113588056686E-6</v>
-      </c>
-      <c r="Y12" s="21">
-        <f t="shared" si="11"/>
-        <v>0.51908956512709892</v>
+        <v>0.52235713453718602</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="B13" s="5">
@@ -4725,16 +4733,16 @@
         <v>0.17</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.1999999999999984</v>
       </c>
       <c r="F13" s="7">
+        <f t="shared" si="3"/>
+        <v>2.1938288877697483E-6</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="4"/>
-        <v>2.1938288877697483E-6</v>
-      </c>
-      <c r="G13" s="21">
-        <f t="shared" si="5"/>
-        <v>0.47583210136650728</v>
+        <v>0.47882737332575381</v>
       </c>
       <c r="H13" s="5">
         <v>2740</v>
@@ -4747,44 +4755,44 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="K13" s="6">
+        <f t="shared" si="13"/>
+        <v>2.1999999999999984</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="5"/>
+        <v>2.3721295439660473E-6</v>
+      </c>
+      <c r="M13" s="21">
+        <f t="shared" si="6"/>
+        <v>0.47882737332575381</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2934</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="7"/>
+        <v>2911.7195280000001</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Q13" s="6">
         <f t="shared" si="14"/>
         <v>2.1999999999999984</v>
       </c>
-      <c r="L13" s="7">
-        <f t="shared" si="6"/>
-        <v>2.3916942030895138E-6</v>
-      </c>
-      <c r="M13" s="21">
-        <f t="shared" si="7"/>
-        <v>0.47583210136650728</v>
-      </c>
-      <c r="N13" s="5">
-        <v>2934</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="2"/>
-        <v>2911.7195280000001</v>
-      </c>
-      <c r="P13" s="15">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="15"/>
-        <v>2.1999999999999984</v>
-      </c>
       <c r="R13" s="7">
         <f t="shared" si="8"/>
-        <v>2.5610331357170195E-6</v>
+        <v>2.5415849328978591E-6</v>
       </c>
       <c r="S13" s="21">
-        <f t="shared" si="9"/>
-        <v>0.47583210136650728</v>
+        <f t="shared" si="15"/>
+        <v>0.47882737332575381</v>
       </c>
       <c r="T13" s="5">
         <v>3034</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3011.3192800000002</v>
       </c>
       <c r="V13" s="15">
@@ -4795,17 +4803,17 @@
         <v>2.1999999999999984</v>
       </c>
       <c r="X13" s="7">
+        <f t="shared" si="9"/>
+        <v>2.6285236735867475E-6</v>
+      </c>
+      <c r="Y13" s="21">
         <f t="shared" si="10"/>
-        <v>2.6483212453188262E-6</v>
-      </c>
-      <c r="Y13" s="21">
-        <f t="shared" si="11"/>
-        <v>0.47583210136650728</v>
+        <v>0.47882737332575381</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="B14" s="5">
@@ -4819,16 +4827,16 @@
         <v>0.17799999999999999</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.9999999999999984</v>
       </c>
       <c r="F14" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0784504678265734E-6</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" si="4"/>
-        <v>2.0784504678265734E-6</v>
-      </c>
-      <c r="G14" s="21">
-        <f t="shared" si="5"/>
-        <v>0.43257463760591564</v>
+        <v>0.43529761211432155</v>
       </c>
       <c r="H14" s="5">
         <v>2884</v>
@@ -4841,44 +4849,44 @@
         <v>0.18</v>
       </c>
       <c r="K14" s="6">
+        <f t="shared" si="13"/>
+        <v>1.9999999999999984</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="5"/>
+        <v>2.2694790419463384E-6</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" si="6"/>
+        <v>0.43529761211432155</v>
+      </c>
+      <c r="N14" s="5">
+        <v>3099</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="7"/>
+        <v>3075.2519520000001</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="Q14" s="6">
         <f t="shared" si="14"/>
         <v>1.9999999999999984</v>
       </c>
-      <c r="L14" s="7">
-        <f t="shared" si="6"/>
-        <v>2.2885355281055593E-6</v>
-      </c>
-      <c r="M14" s="21">
-        <f t="shared" si="7"/>
-        <v>0.43257463760591564</v>
-      </c>
-      <c r="N14" s="5">
-        <v>3099</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="2"/>
-        <v>3075.2519520000001</v>
-      </c>
-      <c r="P14" s="15">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="15"/>
-        <v>1.9999999999999984</v>
-      </c>
       <c r="R14" s="7">
         <f t="shared" si="8"/>
-        <v>2.4591441059636369E-6</v>
+        <v>2.4402993585395186E-6</v>
       </c>
       <c r="S14" s="21">
-        <f t="shared" si="9"/>
-        <v>0.43257463760591564</v>
+        <f t="shared" si="15"/>
+        <v>0.43529761211432155</v>
       </c>
       <c r="T14" s="5">
         <v>3206</v>
       </c>
       <c r="U14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3181.9851199999998</v>
       </c>
       <c r="V14" s="15">
@@ -4889,17 +4897,17 @@
         <v>1.9999999999999984</v>
       </c>
       <c r="X14" s="7">
+        <f t="shared" si="9"/>
+        <v>2.5249951445989011E-6</v>
+      </c>
+      <c r="Y14" s="21">
         <f t="shared" si="10"/>
-        <v>2.5440516307581216E-6</v>
-      </c>
-      <c r="Y14" s="21">
-        <f t="shared" si="11"/>
-        <v>0.43257463760591564</v>
+        <v>0.43529761211432155</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="B15" s="5">
@@ -4913,16 +4921,16 @@
         <v>0.19</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.7999999999999985</v>
       </c>
       <c r="F15" s="7">
+        <f t="shared" si="3"/>
+        <v>1.9115983829639624E-6</v>
+      </c>
+      <c r="G15" s="21">
         <f t="shared" si="4"/>
-        <v>1.9115983829639624E-6</v>
-      </c>
-      <c r="G15" s="21">
-        <f t="shared" si="5"/>
-        <v>0.3893171738453241</v>
+        <v>0.3917678509028894</v>
       </c>
       <c r="H15" s="5">
         <v>3027</v>
@@ -4935,44 +4943,44 @@
         <v>0.19</v>
       </c>
       <c r="K15" s="6">
+        <f t="shared" si="13"/>
+        <v>1.7999999999999985</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="5"/>
+        <v>2.1437054016778584E-6</v>
+      </c>
+      <c r="M15" s="21">
+        <f t="shared" si="6"/>
+        <v>0.3917678509028894</v>
+      </c>
+      <c r="N15" s="5">
+        <v>3286</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="7"/>
+        <v>3260.7843760000001</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0.189</v>
+      </c>
+      <c r="Q15" s="6">
         <f t="shared" si="14"/>
         <v>1.7999999999999985</v>
       </c>
-      <c r="L15" s="7">
-        <f t="shared" si="6"/>
-        <v>2.1618090635291179E-6</v>
-      </c>
-      <c r="M15" s="21">
-        <f t="shared" si="7"/>
-        <v>0.3893171738453241</v>
-      </c>
-      <c r="N15" s="5">
-        <v>3286</v>
-      </c>
-      <c r="O15" s="6">
-        <f t="shared" si="2"/>
-        <v>3260.7843760000001</v>
-      </c>
-      <c r="P15" s="15">
-        <v>0.189</v>
-      </c>
-      <c r="Q15" s="6">
-        <f t="shared" si="15"/>
-        <v>1.7999999999999985</v>
-      </c>
       <c r="R15" s="7">
         <f t="shared" si="8"/>
-        <v>2.3467805030580381E-6</v>
+        <v>2.3287721236375747E-6</v>
       </c>
       <c r="S15" s="21">
-        <f t="shared" si="9"/>
-        <v>0.3893171738453241</v>
+        <f t="shared" si="15"/>
+        <v>0.3917678509028894</v>
       </c>
       <c r="T15" s="5">
         <v>3406</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3380.7843760000001</v>
       </c>
       <c r="V15" s="15">
@@ -4983,17 +4991,17 @@
         <v>1.7999999999999985</v>
       </c>
       <c r="X15" s="7">
+        <f t="shared" si="9"/>
+        <v>2.4144731767011671E-6</v>
+      </c>
+      <c r="Y15" s="21">
         <f t="shared" si="10"/>
-        <v>2.4324815561216301E-6</v>
-      </c>
-      <c r="Y15" s="21">
-        <f t="shared" si="11"/>
-        <v>0.3893171738453241</v>
+        <v>0.3917678509028894</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="B16" s="5">
@@ -5007,16 +5015,16 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.5999999999999985</v>
       </c>
       <c r="F16" s="7">
+        <f t="shared" si="3"/>
+        <v>1.7017798072527755E-6</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="4"/>
-        <v>1.7017798072527757E-6</v>
-      </c>
-      <c r="G16" s="21">
-        <f t="shared" si="5"/>
-        <v>0.34605971008473246</v>
+        <v>0.3482380896914572</v>
       </c>
       <c r="H16" s="5">
         <v>3173</v>
@@ -5029,44 +5037,44 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="K16" s="6">
+        <f t="shared" si="13"/>
+        <v>1.5999999999999985</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="5"/>
+        <v>1.9975224504819493E-6</v>
+      </c>
+      <c r="M16" s="21">
+        <f t="shared" si="6"/>
+        <v>0.3482380896914572</v>
+      </c>
+      <c r="N16" s="5">
+        <v>3478</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="7"/>
+        <v>3451.1833839999999</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="Q16" s="6">
         <f t="shared" si="14"/>
         <v>1.5999999999999985</v>
       </c>
-      <c r="L16" s="7">
-        <f t="shared" si="6"/>
-        <v>2.0142921583020639E-6</v>
-      </c>
-      <c r="M16" s="21">
-        <f t="shared" si="7"/>
-        <v>0.34605971008473246</v>
-      </c>
-      <c r="N16" s="5">
-        <v>3478</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="2"/>
-        <v>3451.1833839999999</v>
-      </c>
-      <c r="P16" s="15">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="Q16" s="6">
-        <f t="shared" si="15"/>
-        <v>1.5999999999999985</v>
-      </c>
       <c r="R16" s="7">
         <f t="shared" si="8"/>
-        <v>2.2079130559642539E-6</v>
+        <v>2.1908892616620168E-6</v>
       </c>
       <c r="S16" s="21">
-        <f t="shared" si="9"/>
-        <v>0.34605971008473246</v>
+        <f t="shared" si="15"/>
+        <v>0.3482380896914572</v>
       </c>
       <c r="T16" s="5">
         <v>3621</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3594.4502160000002</v>
       </c>
       <c r="V16" s="15">
@@ -5077,17 +5085,17 @@
         <v>1.5999999999999985</v>
       </c>
       <c r="X16" s="7">
+        <f t="shared" si="9"/>
+        <v>2.2818382866359783E-6</v>
+      </c>
+      <c r="Y16" s="21">
         <f t="shared" si="10"/>
-        <v>2.2986926899501331E-6</v>
-      </c>
-      <c r="Y16" s="21">
-        <f t="shared" si="11"/>
-        <v>0.34605971008473246</v>
+        <v>0.3482380896914572</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="B17" s="5">
@@ -5101,16 +5109,16 @@
         <v>0.21</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.3999999999999986</v>
       </c>
       <c r="F17" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4897603294665878E-6</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="4"/>
-        <v>1.4897603294665876E-6</v>
-      </c>
-      <c r="G17" s="21">
-        <f t="shared" si="5"/>
-        <v>0.30280224632414088</v>
+        <v>0.30470832848002499</v>
       </c>
       <c r="H17" s="5">
         <v>3313</v>
@@ -5123,44 +5131,44 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="K17" s="6">
+        <f t="shared" si="13"/>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="5"/>
+        <v>1.8247827204140802E-6</v>
+      </c>
+      <c r="M17" s="21">
+        <f t="shared" si="6"/>
+        <v>0.30470832848002499</v>
+      </c>
+      <c r="N17" s="5">
+        <v>3667</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="7"/>
+        <v>3638.7158079999999</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="Q17" s="6">
         <f t="shared" si="14"/>
         <v>1.3999999999999986</v>
       </c>
-      <c r="L17" s="7">
-        <f t="shared" si="6"/>
-        <v>1.8402714088868245E-6</v>
-      </c>
-      <c r="M17" s="21">
-        <f t="shared" si="7"/>
-        <v>0.30280224632414088</v>
-      </c>
-      <c r="N17" s="5">
-        <v>3667</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="2"/>
-        <v>3638.7158079999999</v>
-      </c>
-      <c r="P17" s="15">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="Q17" s="6">
-        <f t="shared" si="15"/>
-        <v>1.3999999999999986</v>
-      </c>
       <c r="R17" s="7">
         <f t="shared" si="8"/>
-        <v>2.036907713971622E-6</v>
+        <v>2.0211966998270203E-6</v>
       </c>
       <c r="S17" s="21">
-        <f t="shared" si="9"/>
-        <v>0.30280224632414088</v>
+        <f t="shared" si="15"/>
+        <v>0.30470832848002499</v>
       </c>
       <c r="T17" s="5">
         <v>3848</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3819.849224</v>
       </c>
       <c r="V17" s="15">
@@ -5171,17 +5179,17 @@
         <v>1.3999999999999986</v>
       </c>
       <c r="X17" s="7">
+        <f t="shared" si="9"/>
+        <v>2.1218108400802061E-6</v>
+      </c>
+      <c r="Y17" s="21">
         <f t="shared" si="10"/>
-        <v>2.137447745667522E-6</v>
-      </c>
-      <c r="Y17" s="21">
-        <f t="shared" si="11"/>
-        <v>0.30280224632414088</v>
+        <v>0.30470832848002499</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="B18" s="5">
@@ -5195,16 +5203,16 @@
         <v>0.22</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.1999999999999986</v>
       </c>
       <c r="F18" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2777305599361608E-6</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="4"/>
-        <v>1.2777305599361606E-6</v>
-      </c>
-      <c r="G18" s="21">
-        <f t="shared" si="5"/>
-        <v>0.25954478256354929</v>
+        <v>0.26117856726859284</v>
       </c>
       <c r="H18" s="5">
         <v>3388</v>
@@ -5217,44 +5225,44 @@
         <v>0.219</v>
       </c>
       <c r="K18" s="6">
+        <f t="shared" si="13"/>
+        <v>1.1999999999999986</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="5"/>
+        <v>1.5991730305451628E-6</v>
+      </c>
+      <c r="M18" s="21">
+        <f t="shared" si="6"/>
+        <v>0.26117856726859284</v>
+      </c>
+      <c r="N18" s="5">
+        <v>3864</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="7"/>
+        <v>3834.381648</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0.222</v>
+      </c>
+      <c r="Q18" s="6">
         <f t="shared" si="14"/>
         <v>1.1999999999999986</v>
       </c>
-      <c r="L18" s="7">
-        <f t="shared" si="6"/>
-        <v>1.6130842654413938E-6</v>
-      </c>
-      <c r="M18" s="21">
-        <f t="shared" si="7"/>
-        <v>0.25954478256354929</v>
-      </c>
-      <c r="N18" s="5">
-        <v>3864</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" si="2"/>
-        <v>3834.381648</v>
-      </c>
-      <c r="P18" s="15">
-        <v>0.222</v>
-      </c>
-      <c r="Q18" s="6">
-        <f t="shared" si="15"/>
-        <v>1.1999999999999986</v>
-      </c>
       <c r="R18" s="7">
         <f t="shared" si="8"/>
-        <v>1.8397159390984488E-6</v>
+        <v>1.8256141393406259E-6</v>
       </c>
       <c r="S18" s="21">
-        <f t="shared" si="9"/>
-        <v>0.25954478256354929</v>
+        <f t="shared" si="15"/>
+        <v>0.26117856726859284</v>
       </c>
       <c r="T18" s="5">
         <v>4079</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4049.6484799999998</v>
       </c>
       <c r="V18" s="15">
@@ -5265,17 +5273,17 @@
         <v>1.1999999999999986</v>
       </c>
       <c r="X18" s="7">
+        <f t="shared" si="9"/>
+        <v>1.9281063292965337E-6</v>
+      </c>
+      <c r="Y18" s="21">
         <f t="shared" si="10"/>
-        <v>1.9420810858132951E-6</v>
-      </c>
-      <c r="Y18" s="21">
-        <f t="shared" si="11"/>
-        <v>0.25954478256354929</v>
+        <v>0.26117856726859284</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="B19" s="5">
@@ -5289,16 +5297,16 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.99999999999999867</v>
       </c>
       <c r="F19" s="7">
+        <f t="shared" si="3"/>
+        <v>1.06578024163015E-6</v>
+      </c>
+      <c r="G19" s="21">
         <f t="shared" si="4"/>
-        <v>1.06578024163015E-6</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" si="5"/>
-        <v>0.21628731880295773</v>
+        <v>0.21764880605716069</v>
       </c>
       <c r="H19" s="5">
         <v>3396</v>
@@ -5311,44 +5319,44 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="K19" s="6">
+        <f t="shared" si="13"/>
+        <v>0.99999999999999867</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="5"/>
+        <v>1.3351301543083154E-6</v>
+      </c>
+      <c r="M19" s="21">
+        <f t="shared" si="6"/>
+        <v>0.21764880605716069</v>
+      </c>
+      <c r="N19" s="5">
+        <v>4028</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="7"/>
+        <v>3997.31432</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="Q19" s="6">
         <f t="shared" si="14"/>
         <v>0.99999999999999867</v>
       </c>
-      <c r="L19" s="7">
-        <f t="shared" si="6"/>
-        <v>1.3474110009442574E-6</v>
-      </c>
-      <c r="M19" s="21">
-        <f t="shared" si="7"/>
-        <v>0.21628731880295773</v>
-      </c>
-      <c r="N19" s="5">
-        <v>4028</v>
-      </c>
-      <c r="O19" s="6">
-        <f t="shared" si="2"/>
-        <v>3997.31432</v>
-      </c>
-      <c r="P19" s="15">
-        <v>0.23</v>
-      </c>
-      <c r="Q19" s="6">
-        <f t="shared" si="15"/>
-        <v>0.99999999999999867</v>
-      </c>
       <c r="R19" s="7">
         <f t="shared" si="8"/>
-        <v>1.5981659339821758E-6</v>
+        <v>1.5859909567137847E-6</v>
       </c>
       <c r="S19" s="21">
-        <f t="shared" si="9"/>
-        <v>0.21628731880295773</v>
+        <f t="shared" si="15"/>
+        <v>0.21764880605716069</v>
       </c>
       <c r="T19" s="5">
         <v>4302</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4271.4477360000001</v>
       </c>
       <c r="V19" s="15">
@@ -5359,17 +5367,17 @@
         <v>0.99999999999999867</v>
       </c>
       <c r="X19" s="7">
+        <f t="shared" si="9"/>
+        <v>1.6947572642652656E-6</v>
+      </c>
+      <c r="Y19" s="21">
         <f t="shared" si="10"/>
-        <v>1.7068793068498807E-6</v>
-      </c>
-      <c r="Y19" s="21">
-        <f t="shared" si="11"/>
-        <v>0.21628731880295773</v>
+        <v>0.21764880605716069</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="B20" s="5">
@@ -5383,16 +5391,16 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.79999999999999871</v>
       </c>
       <c r="F20" s="7">
+        <f t="shared" si="3"/>
+        <v>8.5641175832731423E-7</v>
+      </c>
+      <c r="G20" s="21">
         <f t="shared" si="4"/>
-        <v>8.5641175832731413E-7</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="5"/>
-        <v>0.17302985504236612</v>
+        <v>0.17411904484572849</v>
       </c>
       <c r="H20" s="5">
         <v>3400</v>
@@ -5405,44 +5413,44 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="K20" s="6">
+        <f t="shared" si="13"/>
+        <v>0.79999999999999871</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0690773344480802E-6</v>
+      </c>
+      <c r="M20" s="21">
+        <f t="shared" si="6"/>
+        <v>0.17411904484572849</v>
+      </c>
+      <c r="N20" s="5">
+        <v>4150</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="7"/>
+        <v>4118.1135759999997</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Q20" s="6">
         <f t="shared" si="14"/>
         <v>0.79999999999999871</v>
       </c>
-      <c r="L20" s="7">
-        <f t="shared" si="6"/>
-        <v>1.0791984459859772E-6</v>
-      </c>
-      <c r="M20" s="21">
-        <f t="shared" si="7"/>
-        <v>0.17302985504236612</v>
-      </c>
-      <c r="N20" s="5">
-        <v>4150</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="2"/>
-        <v>4118.1135759999997</v>
-      </c>
-      <c r="P20" s="15">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="15"/>
-        <v>0.79999999999999871</v>
-      </c>
       <c r="R20" s="7">
         <f t="shared" si="8"/>
-        <v>1.3172569267181782E-6</v>
+        <v>1.307135815180281E-6</v>
       </c>
       <c r="S20" s="21">
-        <f t="shared" si="9"/>
-        <v>0.17302985504236612</v>
+        <f t="shared" si="15"/>
+        <v>0.17411904484572849</v>
       </c>
       <c r="T20" s="5">
         <v>4401</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4369.5138239999997</v>
       </c>
       <c r="V20" s="15">
@@ -5452,17 +5460,17 @@
         <v>0.9</v>
       </c>
       <c r="X20" s="7">
+        <f t="shared" si="9"/>
+        <v>1.5602997337196863E-6</v>
+      </c>
+      <c r="Y20" s="21">
         <f t="shared" si="10"/>
-        <v>1.5715430605536265E-6</v>
-      </c>
-      <c r="Y20" s="21">
-        <f t="shared" si="11"/>
-        <v>0.19465858692266222</v>
+        <v>0.19588392545144487</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -5480,12 +5488,12 @@
         <v>0.69999999999999873</v>
       </c>
       <c r="F21" s="7">
+        <f t="shared" si="3"/>
+        <v>7.5135984201804258E-7</v>
+      </c>
+      <c r="G21" s="21">
         <f t="shared" si="4"/>
-        <v>7.5135984201804258E-7</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" si="5"/>
-        <v>0.15140112316207033</v>
+        <v>0.15235416424001239</v>
       </c>
       <c r="H21" s="5">
         <v>3408</v>
@@ -5501,18 +5509,18 @@
         <v>0.7</v>
       </c>
       <c r="L21" s="7">
+        <f t="shared" si="5"/>
+        <v>9.3755338395964335E-7</v>
+      </c>
+      <c r="M21" s="21">
         <f t="shared" si="6"/>
-        <v>9.4652051939123219E-7</v>
-      </c>
-      <c r="M21" s="21">
-        <f t="shared" si="7"/>
-        <v>0.15140112316207061</v>
+        <v>0.15235416424001266</v>
       </c>
       <c r="N21" s="5">
         <v>4302</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4268.6459999999997</v>
       </c>
       <c r="P21" s="15">
@@ -5523,17 +5531,17 @@
       </c>
       <c r="R21" s="7">
         <f t="shared" si="8"/>
-        <v>1.0241275841099298E-6</v>
+        <v>1.0161873815435878E-6</v>
       </c>
       <c r="S21" s="21">
-        <f t="shared" si="9"/>
-        <v>0.12977239128177481</v>
+        <f t="shared" si="15"/>
+        <v>0.13058928363429659</v>
       </c>
       <c r="T21" s="5">
         <v>4509</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4476.4464959999996</v>
       </c>
       <c r="V21" s="15">
@@ -5543,17 +5551,17 @@
         <v>0.8</v>
       </c>
       <c r="X21" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4208747358889941E-6</v>
+      </c>
+      <c r="Y21" s="21">
         <f t="shared" si="10"/>
-        <v>1.4312075861619937E-6</v>
-      </c>
-      <c r="Y21" s="21">
-        <f t="shared" si="11"/>
-        <v>0.1730298550423664</v>
+        <v>0.17411904484572877</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="B22" s="5">
@@ -5571,12 +5579,12 @@
         <v>0.59999999999999876</v>
       </c>
       <c r="F22" s="7">
+        <f t="shared" si="3"/>
+        <v>6.479426726611364E-7</v>
+      </c>
+      <c r="G22" s="21">
         <f t="shared" si="4"/>
-        <v>6.479426726611365E-7</v>
-      </c>
-      <c r="G22" s="21">
-        <f t="shared" si="5"/>
-        <v>0.12977239128177454</v>
+        <v>0.13058928363429631</v>
       </c>
       <c r="H22" s="5">
         <v>3419</v>
@@ -5592,18 +5600,18 @@
         <v>0.6</v>
       </c>
       <c r="L22" s="7">
+        <f t="shared" si="5"/>
+        <v>8.0594998224678879E-7</v>
+      </c>
+      <c r="M22" s="21">
         <f t="shared" si="6"/>
-        <v>8.1392194562339617E-7</v>
-      </c>
-      <c r="M22" s="21">
-        <f t="shared" si="7"/>
-        <v>0.12977239128177481</v>
+        <v>0.13058928363429659</v>
       </c>
       <c r="N22" s="5">
         <v>4807</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4772.8455039999999</v>
       </c>
       <c r="P22" s="15">
@@ -5614,17 +5622,17 @@
       </c>
       <c r="R22" s="7">
         <f t="shared" si="8"/>
-        <v>9.5362259739974268E-7</v>
+        <v>9.4684695787646455E-7</v>
       </c>
       <c r="S22" s="21">
-        <f t="shared" si="9"/>
-        <v>0.10814365940147901</v>
+        <f t="shared" si="15"/>
+        <v>0.10882440302858049</v>
       </c>
       <c r="T22" s="5">
         <v>4627</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4593.912832</v>
       </c>
       <c r="V22" s="15">
@@ -5634,17 +5642,17 @@
         <v>0.7</v>
       </c>
       <c r="X22" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2758898943024315E-6</v>
+      </c>
+      <c r="Y22" s="21">
         <f t="shared" si="10"/>
-        <v>1.2850793554058776E-6</v>
-      </c>
-      <c r="Y22" s="21">
-        <f t="shared" si="11"/>
-        <v>0.15140112316207061</v>
+        <v>0.15235416424001266</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="B23" s="5">
@@ -5662,12 +5670,12 @@
         <v>0.49999999999999878</v>
       </c>
       <c r="F23" s="7">
+        <f t="shared" si="3"/>
+        <v>5.427691541754392E-7</v>
+      </c>
+      <c r="G23" s="21">
         <f t="shared" si="4"/>
-        <v>5.427691541754393E-7</v>
-      </c>
-      <c r="G23" s="21">
-        <f t="shared" si="5"/>
-        <v>0.10814365940147873</v>
+        <v>0.10882440302858021</v>
       </c>
       <c r="H23" s="5">
         <v>3451</v>
@@ -5683,12 +5691,12 @@
         <v>0.5</v>
       </c>
       <c r="L23" s="7">
+        <f t="shared" si="5"/>
+        <v>6.7786734199096482E-7</v>
+      </c>
+      <c r="M23" s="21">
         <f t="shared" si="6"/>
-        <v>6.8461651417235538E-7</v>
-      </c>
-      <c r="M23" s="21">
-        <f t="shared" si="7"/>
-        <v>0.10814365940147901</v>
+        <v>0.10882440302858049</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="6"/>
@@ -5699,7 +5707,7 @@
         <v>4834</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4800.5125840000001</v>
       </c>
       <c r="V23" s="15">
@@ -5709,17 +5717,17 @@
         <v>0.6</v>
       </c>
       <c r="X23" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1428027324828535E-6</v>
+      </c>
+      <c r="Y23" s="21">
         <f t="shared" si="10"/>
-        <v>1.1507746958594609E-6</v>
-      </c>
-      <c r="Y23" s="21">
-        <f t="shared" si="11"/>
-        <v>0.12977239128177481</v>
+        <v>0.13058928363429659</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="B24" s="5">
@@ -5737,12 +5745,12 @@
         <v>0.3999999999999988</v>
       </c>
       <c r="F24" s="7">
+        <f t="shared" si="3"/>
+        <v>5.5272609899796663E-7</v>
+      </c>
+      <c r="G24" s="21">
         <f t="shared" si="4"/>
-        <v>5.5272609899796652E-7</v>
-      </c>
-      <c r="G24" s="21">
-        <f t="shared" si="5"/>
-        <v>8.6514927521182935E-2</v>
+        <v>8.7059522422864119E-2</v>
       </c>
       <c r="H24" s="5">
         <v>4725</v>
@@ -5758,12 +5766,12 @@
         <v>0.41</v>
       </c>
       <c r="L24" s="7">
+        <f t="shared" si="5"/>
+        <v>7.6298848237361446E-7</v>
+      </c>
+      <c r="M24" s="21">
         <f t="shared" si="6"/>
-        <v>7.6863131966409462E-7</v>
-      </c>
-      <c r="M24" s="21">
-        <f t="shared" si="7"/>
-        <v>8.8677800709212773E-2</v>
+        <v>8.923601048343599E-2</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="6"/>
@@ -5778,7 +5786,7 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="B25" s="16">
@@ -5794,13 +5802,13 @@
       <c r="E25" s="17">
         <v>0.35</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="7">
+        <f t="shared" si="3"/>
+        <v>6.7351336855091149E-7</v>
+      </c>
+      <c r="G25" s="21">
         <f t="shared" si="4"/>
-        <v>6.7351336855091149E-7</v>
-      </c>
-      <c r="G25" s="21">
-        <f t="shared" si="5"/>
-        <v>7.5700561581035303E-2</v>
+        <v>7.6177082120006331E-2</v>
       </c>
       <c r="H25" s="16">
         <v>4945</v>
@@ -5815,13 +5823,13 @@
       <c r="K25" s="17">
         <v>0.4</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="7">
+        <f t="shared" si="5"/>
+        <v>7.792730771609828E-7</v>
+      </c>
+      <c r="M25" s="21">
         <f t="shared" si="6"/>
-        <v>7.8479945814715665E-7</v>
-      </c>
-      <c r="M25" s="21">
-        <f t="shared" si="7"/>
-        <v>8.6514927521183199E-2</v>
+        <v>8.7059522422864383E-2</v>
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
@@ -5841,19 +5849,23 @@
       <c r="D27" s="5">
         <v>1726</v>
       </c>
+      <c r="F27" s="15">
+        <f>AVERAGE(F4:F25)</f>
+        <v>1.7541774980552145E-6</v>
+      </c>
       <c r="N27" t="s">
         <v>13</v>
       </c>
       <c r="O27">
         <f>SLOPE(R4:R22,O4:O22)</f>
-        <v>-7.664845602607488E-10</v>
+        <v>-7.622700124410183E-10</v>
       </c>
       <c r="P27" t="s">
         <v>14</v>
       </c>
       <c r="Q27" s="8">
         <f>INTERCEPT(R4:R22,O4:O22)</f>
-        <v>4.6638181666664465E-6</v>
+        <v>4.6344062801700766E-6</v>
       </c>
       <c r="R27" t="s">
         <v>17</v>
@@ -5863,14 +5875,14 @@
       </c>
       <c r="T27">
         <f>SLOPE(X4:X23,U4:U23)</f>
-        <v>-6.7895602665214094E-10</v>
+        <v>-6.7523831966864179E-10</v>
       </c>
       <c r="U27" t="s">
         <v>14</v>
       </c>
       <c r="V27" s="8">
         <f>INTERCEPT(X4:X23,U4:U23)</f>
-        <v>4.5831409757788818E-6</v>
+        <v>4.5547091403608364E-6</v>
       </c>
       <c r="W27" t="s">
         <v>17</v>
@@ -5878,7 +5890,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C28" s="21">
-        <v>0.82189181145124035</v>
+        <v>0.82189181145124002</v>
       </c>
       <c r="D28" s="5">
         <v>1795</v>
@@ -5896,7 +5908,7 @@
       </c>
       <c r="O29" s="8">
         <f>AVERAGE(Q27,V27)</f>
-        <v>4.6234795712226642E-6</v>
+        <v>4.5945577102654569E-6</v>
       </c>
       <c r="P29" t="s">
         <v>17</v>
@@ -6058,4 +6070,314 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3BA420-91A0-4193-ACA6-D26D3BB31E5A}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6">
+        <v>3.0959139888360886E-6</v>
+      </c>
+      <c r="B1" s="14">
+        <v>1950.7269679999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>3.0627384757377342E-6</v>
+      </c>
+      <c r="B2" s="14">
+        <v>2031.3928080000001</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>3.0322821326278549E-6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2122.9252320000001</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2.9915260484184763E-6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2217.5910720000002</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2.954621247647833E-6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2327.1234960000002</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2.9039039091226025E-6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2439.6559200000002</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2.8457701462048052E-6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2561.5885920000001</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2.7814203462473307E-6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2696.2544320000002</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2.7127114834768954E-6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2848.7868560000002</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2.6285236735867475E-6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3011.3192800000002</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2.5249951445989011E-6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3181.9851199999998</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2.4144731767011671E-6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3380.7843760000001</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2.2818382866359783E-6</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3594.4502160000002</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2.1218108400802061E-6</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3819.849224</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>1.9281063292965337E-6</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4049.6484799999998</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>1.6947572642652656E-6</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4271.4477360000001</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>1.5602997337196863E-6</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4369.5138239999997</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>1.4208747358889941E-6</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4476.4464959999996</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1.2758898943024315E-6</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4593.912832</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>1.1428027324828535E-6</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4800.5125840000001</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_Versuch PVT/data/Daten-pVT_Roman-Zank.xlsx
+++ b/01_Versuch PVT/data/Daten-pVT_Roman-Zank.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD0539E-5635-4C54-BC81-64032CD29368}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD67B79E-A68A-4F40-ABF0-57455FB8993C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11145" yWindow="1395" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="1455" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
-    <sheet name="Stoffmenge" sheetId="4" r:id="rId3"/>
+    <sheet name="Stoffmenge" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId3"/>
     <sheet name="Diagramm" sheetId="2" r:id="rId4"/>
+    <sheet name="Tabelle2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Messreihe T1= 303,15K</t>
   </si>
@@ -90,14 +91,42 @@
   <si>
     <t>Vm [l/kmol]</t>
   </si>
+  <si>
+    <t>Messreihe 1</t>
+  </si>
+  <si>
+    <t>Messreihe 2</t>
+  </si>
+  <si>
+    <t>Messreihe 3</t>
+  </si>
+  <si>
+    <t>Messreihe 4</t>
+  </si>
+  <si>
+    <t>323,15</t>
+  </si>
+  <si>
+    <t>328,15</t>
+  </si>
+  <si>
+    <t>Van der Waals</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>a=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -222,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,6 +306,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -310,13 +343,34 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9834316759806661E-2"/>
+          <c:y val="1.6927535652372396E-2"/>
+          <c:w val="0.68869791694137561"/>
+          <c:h val="0.92763845049737137"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daten!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messreihe T3= 323,15K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -352,7 +406,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -393,66 +447,66 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Daten!$N$4:$N$22</c:f>
+              <c:f>Daten!$O$4:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1911</c:v>
+                  <c:v>1900.7269679999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1995</c:v>
+                  <c:v>1983.2593919999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2084</c:v>
+                  <c:v>2070.7918159999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2177</c:v>
+                  <c:v>2162.3242399999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2281</c:v>
+                  <c:v>2265.2569119999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2390</c:v>
+                  <c:v>2372.7893359999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2507</c:v>
+                  <c:v>2488.4551759999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2639</c:v>
+                  <c:v>2619.2544320000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2780</c:v>
+                  <c:v>2758.65344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2934</c:v>
+                  <c:v>2911.7195280000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3099</c:v>
+                  <c:v>3075.2519520000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3286</c:v>
+                  <c:v>3260.7843760000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3478</c:v>
+                  <c:v>3451.1833839999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3667</c:v>
+                  <c:v>3638.7158079999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3864</c:v>
+                  <c:v>3834.381648</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4028</c:v>
+                  <c:v>3997.31432</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4150</c:v>
+                  <c:v>4118.1135759999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4302</c:v>
+                  <c:v>4268.6459999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4807</c:v>
+                  <c:v>4772.8455039999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,61 +518,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.0165611619253548E-6</c:v>
+                  <c:v>2.8298638905699252E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9901675457967976E-6</c:v>
+                  <c:v>2.8051037954767114E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9578173217778154E-6</c:v>
+                  <c:v>2.774755751499133E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9169711994072657E-6</c:v>
+                  <c:v>2.7364376267996674E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8760726343404669E-6</c:v>
+                  <c:v>2.6980703051224274E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8243131221286416E-6</c:v>
+                  <c:v>2.6495142286037373E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7645233399874634E-6</c:v>
+                  <c:v>2.5934248816871406E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7019881665096862E-6</c:v>
+                  <c:v>2.5347600577979615E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6268833871722414E-6</c:v>
+                  <c:v>2.4643035705439115E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5415849328978591E-6</c:v>
+                  <c:v>2.3842843026705433E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4402993585395186E-6</c:v>
+                  <c:v>2.2892673697702464E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3287721236375747E-6</c:v>
+                  <c:v>2.1846426405097655E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1908892616620168E-6</c:v>
+                  <c:v>2.0552934540394254E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0211966998270203E-6</c:v>
+                  <c:v>1.8961032942985031E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8256141393406259E-6</c:v>
+                  <c:v>1.7126254876717028E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5859909567137847E-6</c:v>
+                  <c:v>1.4878327666030754E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.307135815180281E-6</c:v>
+                  <c:v>1.2262361824908003E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0161873815435878E-6</c:v>
+                  <c:v>9.5329476934840987E-7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.4684695787646455E-7</c:v>
+                  <c:v>8.8824587739517327E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,6 +587,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daten!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messreihe T4= 328,15K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -568,7 +633,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -609,69 +674,69 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Daten!$T$4:$T$23</c:f>
+              <c:f>Daten!$U$4:$U$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1961</c:v>
+                  <c:v>1950.7269679999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2043</c:v>
+                  <c:v>2031.3928080000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2136</c:v>
+                  <c:v>2122.9252320000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2232</c:v>
+                  <c:v>2217.5910720000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2343</c:v>
+                  <c:v>2327.1234960000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2457</c:v>
+                  <c:v>2439.6559200000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2580</c:v>
+                  <c:v>2561.5885920000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2716</c:v>
+                  <c:v>2696.2544320000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2870</c:v>
+                  <c:v>2848.7868560000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3034</c:v>
+                  <c:v>3011.3192800000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3206</c:v>
+                  <c:v>3181.9851199999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3406</c:v>
+                  <c:v>3380.7843760000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3621</c:v>
+                  <c:v>3594.4502160000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3848</c:v>
+                  <c:v>3819.849224</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4079</c:v>
+                  <c:v>4049.6484799999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4302</c:v>
+                  <c:v>4271.4477360000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4401</c:v>
+                  <c:v>4369.5138239999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4509</c:v>
+                  <c:v>4476.4464959999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4627</c:v>
+                  <c:v>4593.912832</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4834</c:v>
+                  <c:v>4800.5125840000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,64 +748,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.0959139888360886E-6</c:v>
+                  <c:v>2.8600527981583431E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0627384757377342E-6</c:v>
+                  <c:v>2.8294047506320099E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0322821326278549E-6</c:v>
+                  <c:v>2.8012687140214358E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9915260484184763E-6</c:v>
+                  <c:v>2.7636176187050468E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.954621247647833E-6</c:v>
+                  <c:v>2.7295243980632044E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9039039091226025E-6</c:v>
+                  <c:v>2.6826709433201796E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8457701462048052E-6</c:v>
+                  <c:v>2.6289660820417085E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7814203462473307E-6</c:v>
+                  <c:v>2.5695187504643555E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7127114834768954E-6</c:v>
+                  <c:v>2.506044449843123E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6285236735867475E-6</c:v>
+                  <c:v>2.4282704606058891E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5249951445989011E-6</c:v>
+                  <c:v>2.332629218604775E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4144731767011671E-6</c:v>
+                  <c:v>2.230527330540786E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2818382866359783E-6</c:v>
+                  <c:v>2.1079971860237598E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1218108400802061E-6</c:v>
+                  <c:v>1.9601613779378775E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9281063292965337E-6</c:v>
+                  <c:v>1.7812141817042334E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6947572642652656E-6</c:v>
+                  <c:v>1.565642738570822E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5602997337196863E-6</c:v>
+                  <c:v>1.4414288108399295E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4208747358889941E-6</c:v>
+                  <c:v>1.3126258606879432E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2758898943024315E-6</c:v>
+                  <c:v>1.1786866416510197E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1428027324828535E-6</c:v>
+                  <c:v>1.0557386815547068E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,6 +814,492 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C31D-4079-BCC7-FB2D410E7B53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daten!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messreihe T3= 323,15K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8016594373150794E-2"/>
+                  <c:y val="1.0697835991173023E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daten!$O$4:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1900.7269679999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983.2593919999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2070.7918159999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2162.3242399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2265.2569119999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2372.7893359999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daten!$R$4:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8298638905699252E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8051037954767114E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.774755751499133E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7364376267996674E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6980703051224274E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6495142286037373E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B3E-439B-9492-67C6A7E34091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Daten!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messreihe T4= 328,15K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12835322019470763"/>
+                  <c:y val="-4.4505590168700551E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daten!$U$4:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1950.7269679999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2031.3928080000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2122.9252320000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2217.5910720000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2327.1234960000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2439.6559200000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daten!$X$4:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8600527981583431E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8294047506320099E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8012687140214358E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7636176187050468E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7295243980632044E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6826709433201796E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5B3E-439B-9492-67C6A7E34091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daten!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1809.7269679999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1884.3928080000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1965.7918159999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2049.5910720000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2147.2569119999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2242.7893359999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daten!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7804213411711048E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7503793487078752E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7181760855294448E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6766014041479308E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6391954360717526E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5843260242414793E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C3DE-4A61-81A2-6FDB0FDAAEF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daten!$O$4:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1900.7269679999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1983.2593919999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2070.7918159999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2162.3242399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2265.2569119999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2372.7893359999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daten!$R$4:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8298638905699252E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8051037954767114E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.774755751499133E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7364376267996674E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6980703051224274E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6495142286037373E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C3DE-4A61-81A2-6FDB0FDAAEF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1084,70 +1635,70 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="22"/>
                       <c:pt idx="0">
-                        <c:v>2.8721390169478194E-6</c:v>
+                        <c:v>2.7804213411711048E-6</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2.8411060301760548E-6</c:v>
+                        <c:v>2.7503793487078752E-6</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2.8078404789165287E-6</c:v>
+                        <c:v>2.7181760855294448E-6</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2.7648943747614205E-6</c:v>
+                        <c:v>2.6766014041479308E-6</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.7262544971330012E-6</c:v>
+                        <c:v>2.6391954360717526E-6</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2.6695751096527109E-6</c:v>
+                        <c:v>2.5843260242414793E-6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2.6055107633976024E-6</c:v>
+                        <c:v>2.5223074817946134E-6</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2.5378282431073827E-6</c:v>
+                        <c:v>2.4567863065559734E-6</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2.4622739617466193E-6</c:v>
+                        <c:v>2.3836447437441728E-6</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2.3721295439660473E-6</c:v>
+                        <c:v>2.2963789597742527E-6</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2.2694790419463384E-6</c:v>
+                        <c:v>2.1970064555836901E-6</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>2.1437054016778584E-6</c:v>
+                        <c:v>2.0752492176868681E-6</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>1.9975224504819493E-6</c:v>
+                        <c:v>1.9337344111882579E-6</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>1.8247827204140802E-6</c:v>
+                        <c:v>1.7665108787914047E-6</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>1.5991730305451628E-6</c:v>
+                        <c:v>1.5481057135869906E-6</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>1.3351301543083154E-6</c:v>
+                        <c:v>1.2924946711753658E-6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>1.0690773344480802E-6</c:v>
+                        <c:v>1.0349378698321428E-6</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>9.3755338395964335E-7</c:v>
+                        <c:v>9.0761394969620273E-7</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>8.0594998224678879E-7</c:v>
+                        <c:v>7.8021311549772958E-7</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>6.7786734199096482E-7</c:v>
+                        <c:v>6.5622061224512538E-7</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>7.6298848237361446E-7</c:v>
+                        <c:v>7.3862353003851588E-7</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>7.792730771609828E-7</c:v>
+                        <c:v>7.5438809944547967E-7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1296,7 +1847,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1422,70 +1973,70 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0.87059522422864388</c:v>
+                  <c:v>1.1232715769499904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82706546301721162</c:v>
+                  <c:v>1.0671079981024907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78353570180577936</c:v>
+                  <c:v>1.0109444192549912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7400059405943471</c:v>
+                  <c:v>0.95478084040749156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69647617938291484</c:v>
+                  <c:v>0.898617261559992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65294641817148269</c:v>
+                  <c:v>0.84245368271249244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60941665696005043</c:v>
+                  <c:v>0.78629010386499287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56588689574861828</c:v>
+                  <c:v>0.73012652501749342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52235713453718602</c:v>
+                  <c:v>0.67396294616999386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47882737332575381</c:v>
+                  <c:v>0.6177993673224943</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.43529761211432155</c:v>
+                  <c:v>0.56163578847499462</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3917678509028894</c:v>
+                  <c:v>0.50547220962749517</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3482380896914572</c:v>
+                  <c:v>0.44930863077999572</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30470832848002499</c:v>
+                  <c:v>0.39314505193249621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26117856726859284</c:v>
+                  <c:v>0.33698147308499665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21764880605716069</c:v>
+                  <c:v>0.2808178942374972</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17411904484572849</c:v>
+                  <c:v>0.22465431538999769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15235416424001239</c:v>
+                  <c:v>0.19657252596624794</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13058928363429631</c:v>
+                  <c:v>0.16849073654249819</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10882440302858021</c:v>
+                  <c:v>0.14040894711874843</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.7059522422864119E-2</c:v>
+                  <c:v>0.11232715769499869</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.6177082120006331E-2</c:v>
+                  <c:v>9.8286262983124151E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,70 +2160,70 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0.87059522422864388</c:v>
+                  <c:v>1.1232715769499904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82706546301721162</c:v>
+                  <c:v>1.0671079981024907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78353570180577936</c:v>
+                  <c:v>1.0109444192549912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7400059405943471</c:v>
+                  <c:v>0.95478084040749156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69647617938291484</c:v>
+                  <c:v>0.898617261559992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65294641817148269</c:v>
+                  <c:v>0.84245368271249244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60941665696005043</c:v>
+                  <c:v>0.78629010386499287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56588689574861828</c:v>
+                  <c:v>0.73012652501749342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52235713453718602</c:v>
+                  <c:v>0.67396294616999386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47882737332575381</c:v>
+                  <c:v>0.6177993673224943</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.43529761211432155</c:v>
+                  <c:v>0.56163578847499462</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3917678509028894</c:v>
+                  <c:v>0.50547220962749517</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3482380896914572</c:v>
+                  <c:v>0.44930863077999572</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30470832848002499</c:v>
+                  <c:v>0.39314505193249621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26117856726859284</c:v>
+                  <c:v>0.33698147308499665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21764880605716069</c:v>
+                  <c:v>0.2808178942374972</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17411904484572849</c:v>
+                  <c:v>0.22465431538999769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15235416424001266</c:v>
+                  <c:v>0.1965725259662483</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13058928363429659</c:v>
+                  <c:v>0.16849073654249855</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10882440302858049</c:v>
+                  <c:v>0.14040894711874879</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.923601048343599E-2</c:v>
+                  <c:v>0.11513533663737399</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.7059522422864383E-2</c:v>
+                  <c:v>0.11232715769499903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,61 +2347,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.87059522422864388</c:v>
+                  <c:v>1.1232715769499904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82706546301721162</c:v>
+                  <c:v>1.0671079981024907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78353570180577936</c:v>
+                  <c:v>1.0109444192549912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7400059405943471</c:v>
+                  <c:v>0.95478084040749156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69647617938291484</c:v>
+                  <c:v>0.898617261559992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65294641817148269</c:v>
+                  <c:v>0.84245368271249244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60941665696005043</c:v>
+                  <c:v>0.78629010386499287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56588689574861828</c:v>
+                  <c:v>0.73012652501749342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52235713453718602</c:v>
+                  <c:v>0.67396294616999386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47882737332575381</c:v>
+                  <c:v>0.6177993673224943</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.43529761211432155</c:v>
+                  <c:v>0.56163578847499462</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3917678509028894</c:v>
+                  <c:v>0.50547220962749517</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3482380896914572</c:v>
+                  <c:v>0.44930863077999572</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30470832848002499</c:v>
+                  <c:v>0.39314505193249621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26117856726859284</c:v>
+                  <c:v>0.33698147308499665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21764880605716069</c:v>
+                  <c:v>0.2808178942374972</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17411904484572849</c:v>
+                  <c:v>0.22465431538999769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13058928363429659</c:v>
+                  <c:v>0.16849073654249855</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10882440302858049</c:v>
+                  <c:v>0.14040894711874879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,64 +2516,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.87059522422864388</c:v>
+                  <c:v>1.1232715769499904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82706546301721162</c:v>
+                  <c:v>1.0671079981024907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78353570180577936</c:v>
+                  <c:v>1.0109444192549912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7400059405943471</c:v>
+                  <c:v>0.95478084040749156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69647617938291484</c:v>
+                  <c:v>0.898617261559992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65294641817148269</c:v>
+                  <c:v>0.84245368271249244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60941665696005043</c:v>
+                  <c:v>0.78629010386499287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56588689574861828</c:v>
+                  <c:v>0.73012652501749342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52235713453718602</c:v>
+                  <c:v>0.67396294616999386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47882737332575381</c:v>
+                  <c:v>0.6177993673224943</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.43529761211432155</c:v>
+                  <c:v>0.56163578847499462</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3917678509028894</c:v>
+                  <c:v>0.50547220962749517</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3482380896914572</c:v>
+                  <c:v>0.44930863077999572</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30470832848002499</c:v>
+                  <c:v>0.39314505193249621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26117856726859284</c:v>
+                  <c:v>0.33698147308499665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21764880605716069</c:v>
+                  <c:v>0.2808178942374972</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.19588392545144487</c:v>
+                  <c:v>0.25273610481374781</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17411904484572877</c:v>
+                  <c:v>0.22465431538999805</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15235416424001266</c:v>
+                  <c:v>0.1965725259662483</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13058928363429659</c:v>
+                  <c:v>0.16849073654249855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3394,7 +3945,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{29BCCF49-055A-4CDB-AB26-126BDAF98EA6}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3405,7 +3956,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3476,6 +4027,21 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0CDAC20-684A-49F6-BC4C-8CC94EF51221}" name="Tabelle1" displayName="Tabelle1" ref="P31:Q32" totalsRowShown="0">
+  <autoFilter ref="P31:Q32" xr:uid="{AB3B8460-73DA-402A-A679-0F3D7DAB2820}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C3E51D52-6D1B-44F2-8B5B-6EEAA23C2D6E}" name="323,15">
+      <calculatedColumnFormula>O27*8.314*P31/$O$29*1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{FC089E75-8DC5-4394-9A8F-08902DFEB2A6}" name="328,15">
+      <calculatedColumnFormula>T27*8.314*Q31/O29*1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3743,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,16 +4320,18 @@
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -3899,13 +4467,13 @@
       </c>
       <c r="G4" s="21">
         <f>E4*10^-6/($O$29)</f>
-        <v>0.87059522422864388</v>
+        <v>1.1232715769499904</v>
       </c>
       <c r="H4" s="5">
         <v>1820</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I25" si="1">H4-J4*9.81*13.6</f>
+        <f>H4-J4*9.81*13.6</f>
         <v>1809.7269679999999</v>
       </c>
       <c r="J4" s="6">
@@ -3915,12 +4483,12 @@
         <v>4</v>
       </c>
       <c r="L4" s="7">
-        <f>K4*10^(-6)*I4/8.314/303.15</f>
-        <v>2.8721390169478194E-6</v>
+        <f>K4*10^(-6)*I4/8.314/313.15</f>
+        <v>2.7804213411711048E-6</v>
       </c>
       <c r="M4" s="21">
         <f>K4*10^-6/$O$29</f>
-        <v>0.87059522422864388</v>
+        <v>1.1232715769499904</v>
       </c>
       <c r="N4" s="5">
         <v>1911</v>
@@ -3936,18 +4504,18 @@
         <v>4</v>
       </c>
       <c r="R4" s="7">
-        <f>Q4*10^(-6)*O4/8.314/303.15</f>
-        <v>3.0165611619253548E-6</v>
+        <f>Q4*10^(-6)*O4/8.314/323.15</f>
+        <v>2.8298638905699252E-6</v>
       </c>
       <c r="S4" s="21">
         <f>Q4*10^-6/$O$29</f>
-        <v>0.87059522422864388</v>
+        <v>1.1232715769499904</v>
       </c>
       <c r="T4" s="5">
         <v>1961</v>
       </c>
       <c r="U4" s="6">
-        <f t="shared" ref="U4:U23" si="2">T4-V4*9.81*13.6</f>
+        <f t="shared" ref="U4:U23" si="1">T4-V4*9.81*13.6</f>
         <v>1950.7269679999999</v>
       </c>
       <c r="V4" s="15">
@@ -3957,12 +4525,12 @@
         <v>4</v>
       </c>
       <c r="X4" s="7">
-        <f>W4*10^(-6)*U4/8.314/303.15</f>
-        <v>3.0959139888360886E-6</v>
+        <f>W4*10^(-6)*U4/8.314/328.15</f>
+        <v>2.8600527981583431E-6</v>
       </c>
       <c r="Y4" s="21">
         <f>W4*10^-6/$O$29</f>
-        <v>0.87059522422864388</v>
+        <v>1.1232715769499904</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3985,18 +4553,18 @@
         <v>3.8</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F25" si="3">E5*C5/8.314/303.15*10^-6</f>
+        <f t="shared" ref="F5:F25" si="2">E5*C5/8.314/303.15*10^-6</f>
         <v>2.6888279553343568E-6</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" ref="G5:G25" si="4">E5*10^-6/($O$29)</f>
-        <v>0.82706546301721162</v>
+        <f t="shared" ref="G5:G25" si="3">E5*10^-6/($O$29)</f>
+        <v>1.0671079981024907</v>
       </c>
       <c r="H5" s="5">
         <v>1896</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I5:I25" si="4">H5-J5*9.81*13.6</f>
         <v>1884.3928080000001</v>
       </c>
       <c r="J5" s="6">
@@ -4007,18 +4575,18 @@
         <v>3.8</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" ref="L5:L25" si="5">K5*10^(-6)*I5/8.314/303.15</f>
-        <v>2.8411060301760548E-6</v>
+        <f t="shared" ref="L5:L25" si="5">K5*10^(-6)*I5/8.314/313.15</f>
+        <v>2.7503793487078752E-6</v>
       </c>
       <c r="M5" s="21">
         <f t="shared" ref="M5:M25" si="6">K5*10^-6/$O$29</f>
-        <v>0.82706546301721162</v>
+        <v>1.0671079981024907</v>
       </c>
       <c r="N5" s="5">
         <v>1995</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" ref="O4:O22" si="7">N5-P5*9.81*13.6</f>
+        <f t="shared" ref="O5:O22" si="7">N5-P5*9.81*13.6</f>
         <v>1983.2593919999999</v>
       </c>
       <c r="P5" s="15">
@@ -4029,18 +4597,18 @@
         <v>3.8</v>
       </c>
       <c r="R5" s="7">
-        <f t="shared" ref="R5:R22" si="8">Q5*10^(-6)*O5/8.314/303.15</f>
-        <v>2.9901675457967976E-6</v>
+        <f t="shared" ref="R5:R21" si="8">Q5*10^(-6)*O5/8.314/323.15</f>
+        <v>2.8051037954767114E-6</v>
       </c>
       <c r="S5" s="21">
         <f>Q5*10^-6/$O$29</f>
-        <v>0.82706546301721162</v>
+        <v>1.0671079981024907</v>
       </c>
       <c r="T5" s="5">
         <v>2043</v>
       </c>
       <c r="U5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2031.3928080000001</v>
       </c>
       <c r="V5" s="15">
@@ -4051,12 +4619,12 @@
         <v>3.8</v>
       </c>
       <c r="X5" s="7">
-        <f t="shared" ref="X5:X23" si="9">W5*10^(-6)*U5/8.314/303.15</f>
-        <v>3.0627384757377342E-6</v>
+        <f t="shared" ref="X5:X23" si="9">W5*10^(-6)*U5/8.314/328.15</f>
+        <v>2.8294047506320099E-6</v>
       </c>
       <c r="Y5" s="21">
         <f t="shared" ref="Y5:Y23" si="10">W5*10^-6/$O$29</f>
-        <v>0.82706546301721162</v>
+        <v>1.0671079981024907</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4079,18 +4647,18 @@
         <v>3.5999999999999996</v>
       </c>
       <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6611014675472131E-6</v>
+      </c>
+      <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>2.6611014675472131E-6</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="4"/>
-        <v>0.78353570180577936</v>
+        <v>1.0109444192549912</v>
       </c>
       <c r="H6" s="5">
         <v>1979</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1965.7918159999999</v>
       </c>
       <c r="J6" s="6">
@@ -4102,11 +4670,11 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="5"/>
-        <v>2.8078404789165287E-6</v>
+        <v>2.7181760855294448E-6</v>
       </c>
       <c r="M6" s="21">
         <f t="shared" si="6"/>
-        <v>0.78353570180577936</v>
+        <v>1.0109444192549912</v>
       </c>
       <c r="N6" s="5">
         <v>2084</v>
@@ -4124,17 +4692,17 @@
       </c>
       <c r="R6" s="7">
         <f t="shared" si="8"/>
-        <v>2.9578173217778154E-6</v>
+        <v>2.774755751499133E-6</v>
       </c>
       <c r="S6" s="21">
-        <f t="shared" ref="S5:S22" si="15">Q6*10^-6/$O$29</f>
-        <v>0.78353570180577936</v>
+        <f t="shared" ref="S6:S22" si="15">Q6*10^-6/$O$29</f>
+        <v>1.0109444192549912</v>
       </c>
       <c r="T6" s="5">
         <v>2136</v>
       </c>
       <c r="U6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2122.9252320000001</v>
       </c>
       <c r="V6" s="15">
@@ -4146,11 +4714,11 @@
       </c>
       <c r="X6" s="7">
         <f t="shared" si="9"/>
-        <v>3.0322821326278549E-6</v>
+        <v>2.8012687140214358E-6</v>
       </c>
       <c r="Y6" s="21">
         <f t="shared" si="10"/>
-        <v>0.78353570180577936</v>
+        <v>1.0109444192549912</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -4173,18 +4741,18 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="F7" s="7">
+        <f t="shared" si="2"/>
+        <v>2.602834629938687E-6</v>
+      </c>
+      <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>2.602834629938687E-6</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="4"/>
-        <v>0.7400059405943471</v>
+        <v>0.95478084040749156</v>
       </c>
       <c r="H7" s="5">
         <v>2064</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2049.5910720000002</v>
       </c>
       <c r="J7" s="6">
@@ -4196,11 +4764,11 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="5"/>
-        <v>2.7648943747614205E-6</v>
+        <v>2.6766014041479308E-6</v>
       </c>
       <c r="M7" s="21">
         <f t="shared" si="6"/>
-        <v>0.7400059405943471</v>
+        <v>0.95478084040749156</v>
       </c>
       <c r="N7" s="5">
         <v>2177</v>
@@ -4218,17 +4786,17 @@
       </c>
       <c r="R7" s="7">
         <f t="shared" si="8"/>
-        <v>2.9169711994072657E-6</v>
+        <v>2.7364376267996674E-6</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="15"/>
-        <v>0.7400059405943471</v>
+        <v>0.95478084040749156</v>
       </c>
       <c r="T7" s="5">
         <v>2232</v>
       </c>
       <c r="U7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2217.5910720000002</v>
       </c>
       <c r="V7" s="15">
@@ -4240,11 +4808,11 @@
       </c>
       <c r="X7" s="7">
         <f t="shared" si="9"/>
-        <v>2.9915260484184763E-6</v>
+        <v>2.7636176187050468E-6</v>
       </c>
       <c r="Y7" s="21">
         <f t="shared" si="10"/>
-        <v>0.7400059405943471</v>
+        <v>0.95478084040749156</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -4267,18 +4835,18 @@
         <v>3.1999999999999993</v>
       </c>
       <c r="F8" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5648401618623086E-6</v>
+      </c>
+      <c r="G8" s="21">
         <f t="shared" si="3"/>
-        <v>2.5648401618623086E-6</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="4"/>
-        <v>0.69647617938291484</v>
+        <v>0.898617261559992</v>
       </c>
       <c r="H8" s="5">
         <v>2163</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2147.2569119999998</v>
       </c>
       <c r="J8" s="6">
@@ -4290,11 +4858,11 @@
       </c>
       <c r="L8" s="7">
         <f t="shared" si="5"/>
-        <v>2.7262544971330012E-6</v>
+        <v>2.6391954360717526E-6</v>
       </c>
       <c r="M8" s="21">
         <f t="shared" si="6"/>
-        <v>0.69647617938291484</v>
+        <v>0.898617261559992</v>
       </c>
       <c r="N8" s="5">
         <v>2281</v>
@@ -4312,17 +4880,17 @@
       </c>
       <c r="R8" s="7">
         <f t="shared" si="8"/>
-        <v>2.8760726343404669E-6</v>
+        <v>2.6980703051224274E-6</v>
       </c>
       <c r="S8" s="21">
         <f t="shared" si="15"/>
-        <v>0.69647617938291484</v>
+        <v>0.898617261559992</v>
       </c>
       <c r="T8" s="5">
         <v>2343</v>
       </c>
       <c r="U8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2327.1234960000002</v>
       </c>
       <c r="V8" s="15">
@@ -4334,11 +4902,11 @@
       </c>
       <c r="X8" s="7">
         <f t="shared" si="9"/>
-        <v>2.954621247647833E-6</v>
+        <v>2.7295243980632044E-6</v>
       </c>
       <c r="Y8" s="21">
         <f t="shared" si="10"/>
-        <v>0.69647617938291484</v>
+        <v>0.898617261559992</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -4361,18 +4929,18 @@
         <v>2.9999999999999991</v>
       </c>
       <c r="F9" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5100759275621363E-6</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>2.5100759275621363E-6</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="4"/>
-        <v>0.65294641817148269</v>
+        <v>0.84245368271249244</v>
       </c>
       <c r="H9" s="5">
         <v>2260</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2242.7893359999998</v>
       </c>
       <c r="J9" s="6">
@@ -4384,11 +4952,11 @@
       </c>
       <c r="L9" s="7">
         <f t="shared" si="5"/>
-        <v>2.6695751096527109E-6</v>
+        <v>2.5843260242414793E-6</v>
       </c>
       <c r="M9" s="21">
         <f t="shared" si="6"/>
-        <v>0.65294641817148269</v>
+        <v>0.84245368271249244</v>
       </c>
       <c r="N9" s="5">
         <v>2390</v>
@@ -4406,17 +4974,17 @@
       </c>
       <c r="R9" s="7">
         <f t="shared" si="8"/>
-        <v>2.8243131221286416E-6</v>
+        <v>2.6495142286037373E-6</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="15"/>
-        <v>0.65294641817148269</v>
+        <v>0.84245368271249244</v>
       </c>
       <c r="T9" s="5">
         <v>2457</v>
       </c>
       <c r="U9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2439.6559200000002</v>
       </c>
       <c r="V9" s="15">
@@ -4428,11 +4996,11 @@
       </c>
       <c r="X9" s="7">
         <f t="shared" si="9"/>
-        <v>2.9039039091226025E-6</v>
+        <v>2.6826709433201796E-6</v>
       </c>
       <c r="Y9" s="21">
         <f t="shared" si="10"/>
-        <v>0.65294641817148269</v>
+        <v>0.84245368271249244</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -4455,18 +5023,18 @@
         <v>2.7999999999999989</v>
       </c>
       <c r="F10" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4380553215374556E-6</v>
+      </c>
+      <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>2.4380553215374556E-6</v>
-      </c>
-      <c r="G10" s="21">
-        <f t="shared" si="4"/>
-        <v>0.60941665696005043</v>
+        <v>0.78629010386499287</v>
       </c>
       <c r="H10" s="5">
         <v>2364</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2345.3217599999998</v>
       </c>
       <c r="J10" s="6">
@@ -4478,11 +5046,11 @@
       </c>
       <c r="L10" s="7">
         <f t="shared" si="5"/>
-        <v>2.6055107633976024E-6</v>
+        <v>2.5223074817946134E-6</v>
       </c>
       <c r="M10" s="21">
         <f t="shared" si="6"/>
-        <v>0.60941665696005043</v>
+        <v>0.78629010386499287</v>
       </c>
       <c r="N10" s="5">
         <v>2507</v>
@@ -4500,17 +5068,17 @@
       </c>
       <c r="R10" s="7">
         <f t="shared" si="8"/>
-        <v>2.7645233399874634E-6</v>
+        <v>2.5934248816871406E-6</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="15"/>
-        <v>0.60941665696005043</v>
+        <v>0.78629010386499287</v>
       </c>
       <c r="T10" s="5">
         <v>2580</v>
       </c>
       <c r="U10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2561.5885920000001</v>
       </c>
       <c r="V10" s="15">
@@ -4522,11 +5090,11 @@
       </c>
       <c r="X10" s="7">
         <f t="shared" si="9"/>
-        <v>2.8457701462048052E-6</v>
+        <v>2.6289660820417085E-6</v>
       </c>
       <c r="Y10" s="21">
         <f t="shared" si="10"/>
-        <v>0.60941665696005043</v>
+        <v>0.78629010386499287</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -4549,18 +5117,18 @@
         <v>2.5999999999999988</v>
       </c>
       <c r="F11" s="7">
+        <f t="shared" si="2"/>
+        <v>2.368648016133698E-6</v>
+      </c>
+      <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>2.368648016133698E-6</v>
-      </c>
-      <c r="G11" s="21">
-        <f t="shared" si="4"/>
-        <v>0.56588689574861828</v>
+        <v>0.73012652501749342</v>
       </c>
       <c r="H11" s="5">
         <v>2480</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2460.1210160000001</v>
       </c>
       <c r="J11" s="6">
@@ -4572,11 +5140,11 @@
       </c>
       <c r="L11" s="7">
         <f t="shared" si="5"/>
-        <v>2.5378282431073827E-6</v>
+        <v>2.4567863065559734E-6</v>
       </c>
       <c r="M11" s="21">
         <f t="shared" si="6"/>
-        <v>0.56588689574861828</v>
+        <v>0.73012652501749342</v>
       </c>
       <c r="N11" s="5">
         <v>2639</v>
@@ -4594,17 +5162,17 @@
       </c>
       <c r="R11" s="7">
         <f t="shared" si="8"/>
-        <v>2.7019881665096862E-6</v>
+        <v>2.5347600577979615E-6</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="15"/>
-        <v>0.56588689574861828</v>
+        <v>0.73012652501749342</v>
       </c>
       <c r="T11" s="5">
         <v>2716</v>
       </c>
       <c r="U11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2696.2544320000002</v>
       </c>
       <c r="V11" s="15">
@@ -4616,11 +5184,11 @@
       </c>
       <c r="X11" s="7">
         <f t="shared" si="9"/>
-        <v>2.7814203462473307E-6</v>
+        <v>2.5695187504643555E-6</v>
       </c>
       <c r="Y11" s="21">
         <f t="shared" si="10"/>
-        <v>0.56588689574861828</v>
+        <v>0.73012652501749342</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -4643,18 +5211,18 @@
         <v>2.3999999999999986</v>
       </c>
       <c r="F12" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2911259421015574E-6</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>2.2911259421015574E-6</v>
-      </c>
-      <c r="G12" s="21">
-        <f t="shared" si="4"/>
-        <v>0.52235713453718602</v>
+        <v>0.67396294616999386</v>
       </c>
       <c r="H12" s="5">
         <v>2607</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2585.7868560000002</v>
       </c>
       <c r="J12" s="6">
@@ -4666,11 +5234,11 @@
       </c>
       <c r="L12" s="7">
         <f t="shared" si="5"/>
-        <v>2.4622739617466193E-6</v>
+        <v>2.3836447437441728E-6</v>
       </c>
       <c r="M12" s="21">
         <f t="shared" si="6"/>
-        <v>0.52235713453718602</v>
+        <v>0.67396294616999386</v>
       </c>
       <c r="N12" s="5">
         <v>2780</v>
@@ -4688,17 +5256,17 @@
       </c>
       <c r="R12" s="7">
         <f t="shared" si="8"/>
-        <v>2.6268833871722414E-6</v>
+        <v>2.4643035705439115E-6</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="15"/>
-        <v>0.52235713453718602</v>
+        <v>0.67396294616999386</v>
       </c>
       <c r="T12" s="5">
         <v>2870</v>
       </c>
       <c r="U12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2848.7868560000002</v>
       </c>
       <c r="V12" s="15">
@@ -4710,11 +5278,11 @@
       </c>
       <c r="X12" s="7">
         <f t="shared" si="9"/>
-        <v>2.7127114834768954E-6</v>
+        <v>2.506044449843123E-6</v>
       </c>
       <c r="Y12" s="21">
         <f t="shared" si="10"/>
-        <v>0.52235713453718602</v>
+        <v>0.67396294616999386</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -4737,18 +5305,18 @@
         <v>2.1999999999999984</v>
       </c>
       <c r="F13" s="7">
+        <f t="shared" si="2"/>
+        <v>2.1938288877697483E-6</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>2.1938288877697483E-6</v>
-      </c>
-      <c r="G13" s="21">
-        <f t="shared" si="4"/>
-        <v>0.47882737332575381</v>
+        <v>0.6177993673224943</v>
       </c>
       <c r="H13" s="5">
         <v>2740</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2717.586112</v>
       </c>
       <c r="J13" s="6">
@@ -4760,11 +5328,11 @@
       </c>
       <c r="L13" s="7">
         <f t="shared" si="5"/>
-        <v>2.3721295439660473E-6</v>
+        <v>2.2963789597742527E-6</v>
       </c>
       <c r="M13" s="21">
         <f t="shared" si="6"/>
-        <v>0.47882737332575381</v>
+        <v>0.6177993673224943</v>
       </c>
       <c r="N13" s="5">
         <v>2934</v>
@@ -4782,17 +5350,17 @@
       </c>
       <c r="R13" s="7">
         <f t="shared" si="8"/>
-        <v>2.5415849328978591E-6</v>
+        <v>2.3842843026705433E-6</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="15"/>
-        <v>0.47882737332575381</v>
+        <v>0.6177993673224943</v>
       </c>
       <c r="T13" s="5">
         <v>3034</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3011.3192800000002</v>
       </c>
       <c r="V13" s="15">
@@ -4804,11 +5372,11 @@
       </c>
       <c r="X13" s="7">
         <f t="shared" si="9"/>
-        <v>2.6285236735867475E-6</v>
+        <v>2.4282704606058891E-6</v>
       </c>
       <c r="Y13" s="21">
         <f t="shared" si="10"/>
-        <v>0.47882737332575381</v>
+        <v>0.6177993673224943</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -4831,18 +5399,18 @@
         <v>1.9999999999999984</v>
       </c>
       <c r="F14" s="7">
+        <f t="shared" si="2"/>
+        <v>2.0784504678265734E-6</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" si="3"/>
-        <v>2.0784504678265734E-6</v>
-      </c>
-      <c r="G14" s="21">
-        <f t="shared" si="4"/>
-        <v>0.43529761211432155</v>
+        <v>0.56163578847499462</v>
       </c>
       <c r="H14" s="5">
         <v>2884</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2859.9851199999998</v>
       </c>
       <c r="J14" s="6">
@@ -4854,11 +5422,11 @@
       </c>
       <c r="L14" s="7">
         <f t="shared" si="5"/>
-        <v>2.2694790419463384E-6</v>
+        <v>2.1970064555836901E-6</v>
       </c>
       <c r="M14" s="21">
         <f t="shared" si="6"/>
-        <v>0.43529761211432155</v>
+        <v>0.56163578847499462</v>
       </c>
       <c r="N14" s="5">
         <v>3099</v>
@@ -4876,17 +5444,17 @@
       </c>
       <c r="R14" s="7">
         <f t="shared" si="8"/>
-        <v>2.4402993585395186E-6</v>
+        <v>2.2892673697702464E-6</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="15"/>
-        <v>0.43529761211432155</v>
+        <v>0.56163578847499462</v>
       </c>
       <c r="T14" s="5">
         <v>3206</v>
       </c>
       <c r="U14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3181.9851199999998</v>
       </c>
       <c r="V14" s="15">
@@ -4898,11 +5466,11 @@
       </c>
       <c r="X14" s="7">
         <f t="shared" si="9"/>
-        <v>2.5249951445989011E-6</v>
+        <v>2.332629218604775E-6</v>
       </c>
       <c r="Y14" s="21">
         <f t="shared" si="10"/>
-        <v>0.43529761211432155</v>
+        <v>0.56163578847499462</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -4925,18 +5493,18 @@
         <v>1.7999999999999985</v>
       </c>
       <c r="F15" s="7">
+        <f t="shared" si="2"/>
+        <v>1.9115983829639624E-6</v>
+      </c>
+      <c r="G15" s="21">
         <f t="shared" si="3"/>
-        <v>1.9115983829639624E-6</v>
-      </c>
-      <c r="G15" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3917678509028894</v>
+        <v>0.50547220962749517</v>
       </c>
       <c r="H15" s="5">
         <v>3027</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3001.6509599999999</v>
       </c>
       <c r="J15" s="6">
@@ -4948,11 +5516,11 @@
       </c>
       <c r="L15" s="7">
         <f t="shared" si="5"/>
-        <v>2.1437054016778584E-6</v>
+        <v>2.0752492176868681E-6</v>
       </c>
       <c r="M15" s="21">
         <f t="shared" si="6"/>
-        <v>0.3917678509028894</v>
+        <v>0.50547220962749517</v>
       </c>
       <c r="N15" s="5">
         <v>3286</v>
@@ -4970,17 +5538,17 @@
       </c>
       <c r="R15" s="7">
         <f t="shared" si="8"/>
-        <v>2.3287721236375747E-6</v>
+        <v>2.1846426405097655E-6</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="15"/>
-        <v>0.3917678509028894</v>
+        <v>0.50547220962749517</v>
       </c>
       <c r="T15" s="5">
         <v>3406</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3380.7843760000001</v>
       </c>
       <c r="V15" s="15">
@@ -4992,11 +5560,11 @@
       </c>
       <c r="X15" s="7">
         <f t="shared" si="9"/>
-        <v>2.4144731767011671E-6</v>
+        <v>2.230527330540786E-6</v>
       </c>
       <c r="Y15" s="21">
         <f t="shared" si="10"/>
-        <v>0.3917678509028894</v>
+        <v>0.50547220962749517</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -5019,18 +5587,18 @@
         <v>1.5999999999999985</v>
       </c>
       <c r="F16" s="7">
+        <f t="shared" si="2"/>
+        <v>1.7017798072527755E-6</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="3"/>
-        <v>1.7017798072527755E-6</v>
-      </c>
-      <c r="G16" s="21">
-        <f t="shared" si="4"/>
-        <v>0.3482380896914572</v>
+        <v>0.44930863077999572</v>
       </c>
       <c r="H16" s="5">
         <v>3173</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3146.5836319999999</v>
       </c>
       <c r="J16" s="6">
@@ -5042,11 +5610,11 @@
       </c>
       <c r="L16" s="7">
         <f t="shared" si="5"/>
-        <v>1.9975224504819493E-6</v>
+        <v>1.9337344111882579E-6</v>
       </c>
       <c r="M16" s="21">
         <f t="shared" si="6"/>
-        <v>0.3482380896914572</v>
+        <v>0.44930863077999572</v>
       </c>
       <c r="N16" s="5">
         <v>3478</v>
@@ -5064,17 +5632,17 @@
       </c>
       <c r="R16" s="7">
         <f t="shared" si="8"/>
-        <v>2.1908892616620168E-6</v>
+        <v>2.0552934540394254E-6</v>
       </c>
       <c r="S16" s="21">
         <f t="shared" si="15"/>
-        <v>0.3482380896914572</v>
+        <v>0.44930863077999572</v>
       </c>
       <c r="T16" s="5">
         <v>3621</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3594.4502160000002</v>
       </c>
       <c r="V16" s="15">
@@ -5086,11 +5654,11 @@
       </c>
       <c r="X16" s="7">
         <f t="shared" si="9"/>
-        <v>2.2818382866359783E-6</v>
+        <v>2.1079971860237598E-6</v>
       </c>
       <c r="Y16" s="21">
         <f t="shared" si="10"/>
-        <v>0.3482380896914572</v>
+        <v>0.44930863077999572</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -5113,18 +5681,18 @@
         <v>1.3999999999999986</v>
       </c>
       <c r="F17" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4897603294665878E-6</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="3"/>
-        <v>1.4897603294665878E-6</v>
-      </c>
-      <c r="G17" s="21">
-        <f t="shared" si="4"/>
-        <v>0.30470832848002499</v>
+        <v>0.39314505193249621</v>
       </c>
       <c r="H17" s="5">
         <v>3313</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3285.1160559999998</v>
       </c>
       <c r="J17" s="6">
@@ -5136,11 +5704,11 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="5"/>
-        <v>1.8247827204140802E-6</v>
+        <v>1.7665108787914047E-6</v>
       </c>
       <c r="M17" s="21">
         <f t="shared" si="6"/>
-        <v>0.30470832848002499</v>
+        <v>0.39314505193249621</v>
       </c>
       <c r="N17" s="5">
         <v>3667</v>
@@ -5158,17 +5726,17 @@
       </c>
       <c r="R17" s="7">
         <f t="shared" si="8"/>
-        <v>2.0211966998270203E-6</v>
+        <v>1.8961032942985031E-6</v>
       </c>
       <c r="S17" s="21">
         <f t="shared" si="15"/>
-        <v>0.30470832848002499</v>
+        <v>0.39314505193249621</v>
       </c>
       <c r="T17" s="5">
         <v>3848</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3819.849224</v>
       </c>
       <c r="V17" s="15">
@@ -5180,11 +5748,11 @@
       </c>
       <c r="X17" s="7">
         <f t="shared" si="9"/>
-        <v>2.1218108400802061E-6</v>
+        <v>1.9601613779378775E-6</v>
       </c>
       <c r="Y17" s="21">
         <f t="shared" si="10"/>
-        <v>0.30470832848002499</v>
+        <v>0.39314505193249621</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -5207,18 +5775,18 @@
         <v>1.1999999999999986</v>
       </c>
       <c r="F18" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2777305599361608E-6</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="3"/>
-        <v>1.2777305599361608E-6</v>
-      </c>
-      <c r="G18" s="21">
-        <f t="shared" si="4"/>
-        <v>0.26117856726859284</v>
+        <v>0.33698147308499665</v>
       </c>
       <c r="H18" s="5">
         <v>3388</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3358.781896</v>
       </c>
       <c r="J18" s="6">
@@ -5230,11 +5798,11 @@
       </c>
       <c r="L18" s="7">
         <f t="shared" si="5"/>
-        <v>1.5991730305451628E-6</v>
+        <v>1.5481057135869906E-6</v>
       </c>
       <c r="M18" s="21">
         <f t="shared" si="6"/>
-        <v>0.26117856726859284</v>
+        <v>0.33698147308499665</v>
       </c>
       <c r="N18" s="5">
         <v>3864</v>
@@ -5252,17 +5820,17 @@
       </c>
       <c r="R18" s="7">
         <f t="shared" si="8"/>
-        <v>1.8256141393406259E-6</v>
+        <v>1.7126254876717028E-6</v>
       </c>
       <c r="S18" s="21">
         <f t="shared" si="15"/>
-        <v>0.26117856726859284</v>
+        <v>0.33698147308499665</v>
       </c>
       <c r="T18" s="5">
         <v>4079</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4049.6484799999998</v>
       </c>
       <c r="V18" s="15">
@@ -5274,11 +5842,11 @@
       </c>
       <c r="X18" s="7">
         <f t="shared" si="9"/>
-        <v>1.9281063292965337E-6</v>
+        <v>1.7812141817042334E-6</v>
       </c>
       <c r="Y18" s="21">
         <f t="shared" si="10"/>
-        <v>0.26117856726859284</v>
+        <v>0.33698147308499665</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -5301,18 +5869,18 @@
         <v>0.99999999999999867</v>
       </c>
       <c r="F19" s="7">
+        <f t="shared" si="2"/>
+        <v>1.06578024163015E-6</v>
+      </c>
+      <c r="G19" s="21">
         <f t="shared" si="3"/>
-        <v>1.06578024163015E-6</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" si="4"/>
-        <v>0.21764880605716069</v>
+        <v>0.2808178942374972</v>
       </c>
       <c r="H19" s="5">
         <v>3396</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3365.0474880000002</v>
       </c>
       <c r="J19" s="6">
@@ -5324,11 +5892,11 @@
       </c>
       <c r="L19" s="7">
         <f t="shared" si="5"/>
-        <v>1.3351301543083154E-6</v>
+        <v>1.2924946711753658E-6</v>
       </c>
       <c r="M19" s="21">
         <f t="shared" si="6"/>
-        <v>0.21764880605716069</v>
+        <v>0.2808178942374972</v>
       </c>
       <c r="N19" s="5">
         <v>4028</v>
@@ -5346,17 +5914,17 @@
       </c>
       <c r="R19" s="7">
         <f t="shared" si="8"/>
-        <v>1.5859909567137847E-6</v>
+        <v>1.4878327666030754E-6</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="15"/>
-        <v>0.21764880605716069</v>
+        <v>0.2808178942374972</v>
       </c>
       <c r="T19" s="5">
         <v>4302</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4271.4477360000001</v>
       </c>
       <c r="V19" s="15">
@@ -5368,11 +5936,11 @@
       </c>
       <c r="X19" s="7">
         <f t="shared" si="9"/>
-        <v>1.6947572642652656E-6</v>
+        <v>1.565642738570822E-6</v>
       </c>
       <c r="Y19" s="21">
         <f t="shared" si="10"/>
-        <v>0.21764880605716069</v>
+        <v>0.2808178942374972</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -5395,18 +5963,18 @@
         <v>0.79999999999999871</v>
       </c>
       <c r="F20" s="7">
+        <f t="shared" si="2"/>
+        <v>8.5641175832731423E-7</v>
+      </c>
+      <c r="G20" s="21">
         <f t="shared" si="3"/>
-        <v>8.5641175832731423E-7</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="4"/>
-        <v>0.17411904484572849</v>
+        <v>0.22465431538999769</v>
       </c>
       <c r="H20" s="5">
         <v>3400</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3368.1135760000002</v>
       </c>
       <c r="J20" s="6">
@@ -5418,11 +5986,11 @@
       </c>
       <c r="L20" s="7">
         <f t="shared" si="5"/>
-        <v>1.0690773344480802E-6</v>
+        <v>1.0349378698321428E-6</v>
       </c>
       <c r="M20" s="21">
         <f t="shared" si="6"/>
-        <v>0.17411904484572849</v>
+        <v>0.22465431538999769</v>
       </c>
       <c r="N20" s="5">
         <v>4150</v>
@@ -5440,17 +6008,17 @@
       </c>
       <c r="R20" s="7">
         <f t="shared" si="8"/>
-        <v>1.307135815180281E-6</v>
+        <v>1.2262361824908003E-6</v>
       </c>
       <c r="S20" s="21">
         <f t="shared" si="15"/>
-        <v>0.17411904484572849</v>
+        <v>0.22465431538999769</v>
       </c>
       <c r="T20" s="5">
         <v>4401</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4369.5138239999997</v>
       </c>
       <c r="V20" s="15">
@@ -5461,11 +6029,11 @@
       </c>
       <c r="X20" s="7">
         <f t="shared" si="9"/>
-        <v>1.5602997337196863E-6</v>
+        <v>1.4414288108399295E-6</v>
       </c>
       <c r="Y20" s="21">
         <f t="shared" si="10"/>
-        <v>0.19588392545144487</v>
+        <v>0.25273610481374781</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -5488,18 +6056,18 @@
         <v>0.69999999999999873</v>
       </c>
       <c r="F21" s="7">
+        <f t="shared" si="2"/>
+        <v>7.5135984201804258E-7</v>
+      </c>
+      <c r="G21" s="21">
         <f t="shared" si="3"/>
-        <v>7.5135984201804258E-7</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" si="4"/>
-        <v>0.15235416424001239</v>
+        <v>0.19657252596624794</v>
       </c>
       <c r="H21" s="5">
         <v>3408</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3375.7133279999998</v>
       </c>
       <c r="J21" s="6">
@@ -5510,11 +6078,11 @@
       </c>
       <c r="L21" s="7">
         <f t="shared" si="5"/>
-        <v>9.3755338395964335E-7</v>
+        <v>9.0761394969620273E-7</v>
       </c>
       <c r="M21" s="21">
         <f t="shared" si="6"/>
-        <v>0.15235416424001266</v>
+        <v>0.1965725259662483</v>
       </c>
       <c r="N21" s="5">
         <v>4302</v>
@@ -5531,17 +6099,17 @@
       </c>
       <c r="R21" s="7">
         <f t="shared" si="8"/>
-        <v>1.0161873815435878E-6</v>
+        <v>9.5329476934840987E-7</v>
       </c>
       <c r="S21" s="21">
         <f t="shared" si="15"/>
-        <v>0.13058928363429659</v>
+        <v>0.16849073654249855</v>
       </c>
       <c r="T21" s="5">
         <v>4509</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4476.4464959999996</v>
       </c>
       <c r="V21" s="15">
@@ -5552,11 +6120,11 @@
       </c>
       <c r="X21" s="7">
         <f t="shared" si="9"/>
-        <v>1.4208747358889941E-6</v>
+        <v>1.3126258606879432E-6</v>
       </c>
       <c r="Y21" s="21">
         <f t="shared" si="10"/>
-        <v>0.17411904484572877</v>
+        <v>0.22465431538999805</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -5579,18 +6147,18 @@
         <v>0.59999999999999876</v>
       </c>
       <c r="F22" s="7">
+        <f t="shared" si="2"/>
+        <v>6.479426726611364E-7</v>
+      </c>
+      <c r="G22" s="21">
         <f t="shared" si="3"/>
-        <v>6.479426726611364E-7</v>
-      </c>
-      <c r="G22" s="21">
-        <f t="shared" si="4"/>
-        <v>0.13058928363429631</v>
+        <v>0.16849073654249819</v>
       </c>
       <c r="H22" s="5">
         <v>3419</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3385.5125840000001</v>
       </c>
       <c r="J22" s="6">
@@ -5601,11 +6169,11 @@
       </c>
       <c r="L22" s="7">
         <f t="shared" si="5"/>
-        <v>8.0594998224678879E-7</v>
+        <v>7.8021311549772958E-7</v>
       </c>
       <c r="M22" s="21">
         <f t="shared" si="6"/>
-        <v>0.13058928363429659</v>
+        <v>0.16849073654249855</v>
       </c>
       <c r="N22" s="5">
         <v>4807</v>
@@ -5621,18 +6189,18 @@
         <v>0.5</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="8"/>
-        <v>9.4684695787646455E-7</v>
+        <f>Q22*10^(-6)*O22/8.314/323.15</f>
+        <v>8.8824587739517327E-7</v>
       </c>
       <c r="S22" s="21">
         <f t="shared" si="15"/>
-        <v>0.10882440302858049</v>
+        <v>0.14040894711874879</v>
       </c>
       <c r="T22" s="5">
         <v>4627</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4593.912832</v>
       </c>
       <c r="V22" s="15">
@@ -5643,11 +6211,11 @@
       </c>
       <c r="X22" s="7">
         <f t="shared" si="9"/>
-        <v>1.2758898943024315E-6</v>
+        <v>1.1786866416510197E-6</v>
       </c>
       <c r="Y22" s="21">
         <f t="shared" si="10"/>
-        <v>0.15235416424001266</v>
+        <v>0.1965725259662483</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -5670,18 +6238,18 @@
         <v>0.49999999999999878</v>
       </c>
       <c r="F23" s="7">
+        <f t="shared" si="2"/>
+        <v>5.427691541754392E-7</v>
+      </c>
+      <c r="G23" s="21">
         <f t="shared" si="3"/>
-        <v>5.427691541754392E-7</v>
-      </c>
-      <c r="G23" s="21">
-        <f t="shared" si="4"/>
-        <v>0.10882440302858021</v>
+        <v>0.14040894711874843</v>
       </c>
       <c r="H23" s="5">
         <v>3451</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3416.97892</v>
       </c>
       <c r="J23" s="6">
@@ -5692,11 +6260,11 @@
       </c>
       <c r="L23" s="7">
         <f t="shared" si="5"/>
-        <v>6.7786734199096482E-7</v>
+        <v>6.5622061224512538E-7</v>
       </c>
       <c r="M23" s="21">
         <f t="shared" si="6"/>
-        <v>0.10882440302858049</v>
+        <v>0.14040894711874879</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="6"/>
@@ -5707,7 +6275,7 @@
         <v>4834</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4800.5125840000001</v>
       </c>
       <c r="V23" s="15">
@@ -5718,11 +6286,11 @@
       </c>
       <c r="X23" s="7">
         <f t="shared" si="9"/>
-        <v>1.1428027324828535E-6</v>
+        <v>1.0557386815547068E-6</v>
       </c>
       <c r="Y23" s="21">
         <f t="shared" si="10"/>
-        <v>0.13058928363429659</v>
+        <v>0.16849073654249855</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -5745,18 +6313,18 @@
         <v>0.3999999999999988</v>
       </c>
       <c r="F24" s="7">
+        <f t="shared" si="2"/>
+        <v>5.5272609899796663E-7</v>
+      </c>
+      <c r="G24" s="21">
         <f t="shared" si="3"/>
-        <v>5.5272609899796663E-7</v>
-      </c>
-      <c r="G24" s="21">
-        <f t="shared" si="4"/>
-        <v>8.7059522422864119E-2</v>
+        <v>0.11232715769499869</v>
       </c>
       <c r="H24" s="5">
         <v>4725</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4690.3118400000003</v>
       </c>
       <c r="J24" s="6">
@@ -5767,11 +6335,11 @@
       </c>
       <c r="L24" s="7">
         <f t="shared" si="5"/>
-        <v>7.6298848237361446E-7</v>
+        <v>7.3862353003851588E-7</v>
       </c>
       <c r="M24" s="21">
         <f t="shared" si="6"/>
-        <v>8.923601048343599E-2</v>
+        <v>0.11513533663737399</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="6"/>
@@ -5803,18 +6371,18 @@
         <v>0.35</v>
       </c>
       <c r="F25" s="7">
+        <f t="shared" si="2"/>
+        <v>6.7351336855091149E-7</v>
+      </c>
+      <c r="G25" s="21">
         <f t="shared" si="3"/>
-        <v>6.7351336855091149E-7</v>
-      </c>
-      <c r="G25" s="21">
-        <f t="shared" si="4"/>
-        <v>7.6177082120006331E-2</v>
+        <v>9.8286262983124151E-2</v>
       </c>
       <c r="H25" s="16">
         <v>4945</v>
       </c>
       <c r="I25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4910.1784239999997</v>
       </c>
       <c r="J25" s="17">
@@ -5825,11 +6393,11 @@
       </c>
       <c r="L25" s="7">
         <f t="shared" si="5"/>
-        <v>7.792730771609828E-7</v>
+        <v>7.5438809944547967E-7</v>
       </c>
       <c r="M25" s="21">
         <f t="shared" si="6"/>
-        <v>8.7059522422864383E-2</v>
+        <v>0.11232715769499903</v>
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
@@ -5853,19 +6421,29 @@
         <f>AVERAGE(F4:F25)</f>
         <v>1.7541774980552145E-6</v>
       </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27">
+        <f>SLOPE(L4:L9,I4:I9)</f>
+        <v>-4.4714085078763102E-10</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
       <c r="N27" t="s">
         <v>13</v>
       </c>
       <c r="O27">
-        <f>SLOPE(R4:R22,O4:O22)</f>
-        <v>-7.622700124410183E-10</v>
+        <f>SLOPE(R4:R9,O4:O9)</f>
+        <v>-3.8351821723224883E-10</v>
       </c>
       <c r="P27" t="s">
         <v>14</v>
       </c>
       <c r="Q27" s="8">
-        <f>INTERCEPT(R4:R22,O4:O22)</f>
-        <v>4.6344062801700766E-6</v>
+        <f>INTERCEPT(R4:R9,O4:O9)</f>
+        <v>3.5642629123701971E-6</v>
       </c>
       <c r="R27" t="s">
         <v>17</v>
@@ -5873,16 +6451,16 @@
       <c r="S27" t="s">
         <v>13</v>
       </c>
-      <c r="T27">
-        <f>SLOPE(X4:X23,U4:U23)</f>
-        <v>-6.7523831966864179E-10</v>
+      <c r="T27" s="22">
+        <f>SLOPE(X4:X9,U4:U9)</f>
+        <v>-3.5755629295290215E-10</v>
       </c>
       <c r="U27" t="s">
         <v>14</v>
       </c>
-      <c r="V27" s="8">
-        <f>INTERCEPT(X4:X23,U4:U23)</f>
-        <v>4.5547091403608364E-6</v>
+      <c r="V27" s="22">
+        <f>INTERCEPT(X4:X9,U4:U9)</f>
+        <v>3.5577903507617088E-6</v>
       </c>
       <c r="W27" t="s">
         <v>17</v>
@@ -5903,15 +6481,23 @@
       <c r="D29" s="5">
         <v>1876</v>
       </c>
+      <c r="G29">
+        <f>SLOPE(F4:F9,C4:C9)</f>
+        <v>-5.4437096307479814E-10</v>
+      </c>
       <c r="N29" t="s">
         <v>16</v>
       </c>
       <c r="O29" s="8">
         <f>AVERAGE(Q27,V27)</f>
-        <v>4.5945577102654569E-6</v>
+        <v>3.5610266315659527E-6</v>
       </c>
       <c r="P29" t="s">
         <v>17</v>
+      </c>
+      <c r="R29" s="22">
+        <f>AVERAGE(O27,T27)</f>
+        <v>-3.7053725509257549E-10</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -5929,6 +6515,21 @@
       <c r="D31" s="5">
         <v>2036</v>
       </c>
+      <c r="L31">
+        <v>300</v>
+      </c>
+      <c r="N31">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="O31">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C32" s="21">
@@ -5937,6 +6538,25 @@
       <c r="D32" s="5">
         <v>2126</v>
       </c>
+      <c r="L32">
+        <v>-275</v>
+      </c>
+      <c r="N32" s="21">
+        <f>G29*8.314*N31/$O$29*1000</f>
+        <v>-385.28963235719419</v>
+      </c>
+      <c r="O32" s="21">
+        <f>J27*8.314*O31/$O$29*1000</f>
+        <v>-326.91252755737628</v>
+      </c>
+      <c r="P32" s="21">
+        <f>O27*8.314*P31/$O$29*1000</f>
+        <v>-289.35097940333583</v>
+      </c>
+      <c r="Q32" s="21">
+        <f>T27*8.314*Q31/O29*1000</f>
+        <v>-273.93759154679179</v>
+      </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="21">
@@ -6069,299 +6689,847 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3BA420-91A0-4193-ACA6-D26D3BB31E5A}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6">
-        <v>3.0959139888360886E-6</v>
-      </c>
-      <c r="B1" s="14">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1715.593552</v>
+      </c>
+      <c r="B2" s="23">
+        <v>2.7227439636205382E-6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1715.593552</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.93509401838643269</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1809.7269679999999</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.7804213411711048E-6</v>
+      </c>
+      <c r="G2">
+        <v>1809.7269679999999</v>
+      </c>
+      <c r="H2">
+        <v>0.93509401838643269</v>
+      </c>
+      <c r="I2">
+        <v>1900.7269679999999</v>
+      </c>
+      <c r="J2">
+        <v>0.93509401838643269</v>
+      </c>
+      <c r="K2">
         <v>1950.7269679999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>3.0627384757377342E-6</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="L2" s="21">
+        <v>0.93509401838643269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1783.3928080000001</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2.6888279553343568E-6</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1783.3928080000001</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.88833931746711103</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1884.3928080000001</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2.7503793487078752E-6</v>
+      </c>
+      <c r="G3">
+        <v>1884.3928080000001</v>
+      </c>
+      <c r="H3">
+        <v>0.88833931746711103</v>
+      </c>
+      <c r="I3">
+        <v>1983.2593919999999</v>
+      </c>
+      <c r="J3">
+        <v>0.88833931746711103</v>
+      </c>
+      <c r="K3">
         <v>2031.3928080000001</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>3.0322821326278549E-6</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="L3" s="21">
+        <v>0.88833931746711103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1863.0586479999999</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.6611014675472131E-6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1863.0586479999999</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.84158461654778938</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1965.7918159999999</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.7181760855294448E-6</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1965.7918159999999</v>
+      </c>
+      <c r="H4">
+        <v>0.84158461654778938</v>
+      </c>
+      <c r="I4">
+        <v>2070.7918159999999</v>
+      </c>
+      <c r="J4">
+        <v>0.84158461654778938</v>
+      </c>
+      <c r="K4">
         <v>2122.9252320000001</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2.9915260484184763E-6</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="L4" s="21">
+        <v>0.84158461654778938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1929.457656</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.602834629938687E-6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1929.457656</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.79482991562846772</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2049.5910720000002</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2.6766014041479308E-6</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2049.5910720000002</v>
+      </c>
+      <c r="H5">
+        <v>0.79482991562846772</v>
+      </c>
+      <c r="I5">
+        <v>2162.3242399999999</v>
+      </c>
+      <c r="J5">
+        <v>0.79482991562846772</v>
+      </c>
+      <c r="K5">
         <v>2217.5910720000002</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2.954621247647833E-6</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="L5" s="21">
+        <v>0.79482991562846772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2020.1234959999999</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2.5648401618623086E-6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2020.1234959999999</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.74807521470914595</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2147.2569119999998</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2.6391954360717526E-6</v>
+      </c>
+      <c r="G6" s="21">
+        <v>2147.2569119999998</v>
+      </c>
+      <c r="H6">
+        <v>0.74807521470914595</v>
+      </c>
+      <c r="I6">
+        <v>2265.2569119999998</v>
+      </c>
+      <c r="J6">
+        <v>0.74807521470914595</v>
+      </c>
+      <c r="K6">
         <v>2327.1234960000002</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2.9039039091226025E-6</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="L6" s="21">
+        <v>0.74807521470914595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2108.7893359999998</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.5100759275621363E-6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2108.7893359999998</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.7013205137898243</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2242.7893359999998</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2.5843260242414793E-6</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2242.7893359999998</v>
+      </c>
+      <c r="H7">
+        <v>0.7013205137898243</v>
+      </c>
+      <c r="I7">
+        <v>2372.7893359999998</v>
+      </c>
+      <c r="J7">
+        <v>0.7013205137898243</v>
+      </c>
+      <c r="K7">
         <v>2439.6559200000002</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2.8457701462048052E-6</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="L7" s="21">
+        <v>0.7013205137898243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2194.5885920000001</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2.4380553215374556E-6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2194.5885920000001</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.65456581287050264</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2345.3217599999998</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2.5223074817946134E-6</v>
+      </c>
+      <c r="G8" s="21">
+        <v>2345.3217599999998</v>
+      </c>
+      <c r="H8">
+        <v>0.65456581287050264</v>
+      </c>
+      <c r="I8">
+        <v>2488.4551759999999</v>
+      </c>
+      <c r="J8">
+        <v>0.65456581287050264</v>
+      </c>
+      <c r="K8">
         <v>2561.5885920000001</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2.7814203462473307E-6</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="L8" s="21">
+        <v>0.65456581287050264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2296.1210160000001</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2.368648016133698E-6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2296.1210160000001</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.60781111195118098</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2460.1210160000001</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2.4567863065559734E-6</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2460.1210160000001</v>
+      </c>
+      <c r="H9">
+        <v>0.60781111195118098</v>
+      </c>
+      <c r="I9">
+        <v>2619.2544320000002</v>
+      </c>
+      <c r="J9">
+        <v>0.60781111195118098</v>
+      </c>
+      <c r="K9">
         <v>2696.2544320000002</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2.7127114834768954E-6</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="L9" s="21">
+        <v>0.60781111195118098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2406.053688</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.2911259421015574E-6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2406.053688</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.56105641103185933</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2585.7868560000002</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2.3836447437441728E-6</v>
+      </c>
+      <c r="G10" s="21">
+        <v>2585.7868560000002</v>
+      </c>
+      <c r="H10">
+        <v>0.56105641103185933</v>
+      </c>
+      <c r="I10">
+        <v>2758.65344</v>
+      </c>
+      <c r="J10">
+        <v>0.56105641103185933</v>
+      </c>
+      <c r="K10">
         <v>2848.7868560000002</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2.6285236735867475E-6</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="L10" s="21">
+        <v>0.56105641103185933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2513.3192800000002</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2.1938288877697483E-6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2513.3192800000002</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.51430171011253767</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2717.586112</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2.2963789597742527E-6</v>
+      </c>
+      <c r="G11" s="21">
+        <v>2717.586112</v>
+      </c>
+      <c r="H11">
+        <v>0.51430171011253767</v>
+      </c>
+      <c r="I11">
+        <v>2911.7195280000001</v>
+      </c>
+      <c r="J11">
+        <v>0.51430171011253767</v>
+      </c>
+      <c r="K11">
         <v>3011.3192800000002</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>2.5249951445989011E-6</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="L11" s="21">
+        <v>0.51430171011253767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2619.2519520000001</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2.0784504678265734E-6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2619.2519520000001</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.46754700919321596</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2859.9851199999998</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2.1970064555836901E-6</v>
+      </c>
+      <c r="G12" s="21">
+        <v>2859.9851199999998</v>
+      </c>
+      <c r="H12">
+        <v>0.46754700919321596</v>
+      </c>
+      <c r="I12">
+        <v>3075.2519520000001</v>
+      </c>
+      <c r="J12">
+        <v>0.46754700919321596</v>
+      </c>
+      <c r="K12">
         <v>3181.9851199999998</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>2.4144731767011671E-6</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="L12" s="21">
+        <v>0.46754700919321596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2676.6509599999999</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1.9115983829639624E-6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2676.6509599999999</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.42079230827389436</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3001.6509599999999</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2.0752492176868681E-6</v>
+      </c>
+      <c r="G13" s="21">
+        <v>3001.6509599999999</v>
+      </c>
+      <c r="H13">
+        <v>0.42079230827389436</v>
+      </c>
+      <c r="I13">
+        <v>3260.7843760000001</v>
+      </c>
+      <c r="J13">
+        <v>0.42079230827389436</v>
+      </c>
+      <c r="K13">
         <v>3380.7843760000001</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>2.2818382866359783E-6</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="L13" s="21">
+        <v>0.42079230827389436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2680.717048</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1.7017798072527755E-6</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2680.717048</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.37403760735457275</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3146.5836319999999</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.9337344111882579E-6</v>
+      </c>
+      <c r="G14" s="21">
+        <v>3146.5836319999999</v>
+      </c>
+      <c r="H14">
+        <v>0.37403760735457275</v>
+      </c>
+      <c r="I14">
+        <v>3451.1833839999999</v>
+      </c>
+      <c r="J14">
+        <v>0.37403760735457275</v>
+      </c>
+      <c r="K14">
         <v>3594.4502160000002</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>2.1218108400802061E-6</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="L14" s="21">
+        <v>0.37403760735457275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2681.9826400000002</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1.4897603294665878E-6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2681.9826400000002</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.3272829064352511</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3285.1160559999998</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.7665108787914047E-6</v>
+      </c>
+      <c r="G15" s="21">
+        <v>3285.1160559999998</v>
+      </c>
+      <c r="H15">
+        <v>0.3272829064352511</v>
+      </c>
+      <c r="I15">
+        <v>3638.7158079999999</v>
+      </c>
+      <c r="J15">
+        <v>0.3272829064352511</v>
+      </c>
+      <c r="K15">
         <v>3819.849224</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>1.9281063292965337E-6</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="L15" s="21">
+        <v>0.3272829064352511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>2683.6484799999998</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1.2777305599361608E-6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2683.6484799999998</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.2805282055159295</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3358.781896</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.5481057135869906E-6</v>
+      </c>
+      <c r="G16" s="21">
+        <v>3358.781896</v>
+      </c>
+      <c r="H16">
+        <v>0.2805282055159295</v>
+      </c>
+      <c r="I16">
+        <v>3834.381648</v>
+      </c>
+      <c r="J16">
+        <v>0.2805282055159295</v>
+      </c>
+      <c r="K16">
         <v>4049.6484799999998</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>1.6947572642652656E-6</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="L16" s="21">
+        <v>0.2805282055159295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2686.1809039999998</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1.06578024163015E-6</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2686.1809039999998</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.2337735045966079</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3365.0474880000002</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.2924946711753658E-6</v>
+      </c>
+      <c r="G17" s="21">
+        <v>3365.0474880000002</v>
+      </c>
+      <c r="H17">
+        <v>0.2337735045966079</v>
+      </c>
+      <c r="I17">
+        <v>3997.31432</v>
+      </c>
+      <c r="J17">
+        <v>0.2337735045966079</v>
+      </c>
+      <c r="K17">
         <v>4271.4477360000001</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>1.5602997337196863E-6</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="L17" s="21">
+        <v>0.2337735045966079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>2698.1135760000002</v>
+      </c>
+      <c r="B18" s="6">
+        <v>8.5641175832731423E-7</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2698.1135760000002</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.18701880367728624</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3368.1135760000002</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.0349378698321428E-6</v>
+      </c>
+      <c r="G18" s="21">
+        <v>3368.1135760000002</v>
+      </c>
+      <c r="H18">
+        <v>0.18701880367728624</v>
+      </c>
+      <c r="I18">
+        <v>4118.1135759999997</v>
+      </c>
+      <c r="J18">
+        <v>0.18701880367728624</v>
+      </c>
+      <c r="K18">
         <v>4369.5138239999997</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>1.4208747358889941E-6</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="L18" s="21">
+        <v>0.21039615413694737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>2705.3130799999999</v>
+      </c>
+      <c r="B19" s="6">
+        <v>7.5135984201804258E-7</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2705.3130799999999</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.16364145321762544</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3375.7133279999998</v>
+      </c>
+      <c r="F19" s="7">
+        <v>9.0761394969620273E-7</v>
+      </c>
+      <c r="G19" s="21">
+        <v>3375.7133279999998</v>
+      </c>
+      <c r="H19">
+        <v>0.16364145321762572</v>
+      </c>
+      <c r="I19">
+        <v>4268.6459999999997</v>
+      </c>
+      <c r="J19">
+        <v>0.14026410275796491</v>
+      </c>
+      <c r="K19">
         <v>4476.4464959999996</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>1.2758898943024315E-6</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="L19" s="21">
+        <v>0.18701880367728654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>2721.7794159999999</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6.479426726611364E-7</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2721.7794159999999</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.14026410275796461</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3385.5125840000001</v>
+      </c>
+      <c r="F20" s="7">
+        <v>7.8021311549772958E-7</v>
+      </c>
+      <c r="G20" s="21">
+        <v>3385.5125840000001</v>
+      </c>
+      <c r="H20">
+        <v>0.14026410275796491</v>
+      </c>
+      <c r="I20">
+        <v>4772.8455039999999</v>
+      </c>
+      <c r="J20">
+        <v>0.11688675229830409</v>
+      </c>
+      <c r="K20">
         <v>4593.912832</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>1.1428027324828535E-6</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="L20" s="21">
+        <v>0.16364145321762572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>2735.97892</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5.427691541754392E-7</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2735.97892</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.11688675229830379</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3416.97892</v>
+      </c>
+      <c r="F21" s="7">
+        <v>6.5622061224512538E-7</v>
+      </c>
+      <c r="G21" s="21">
+        <v>3416.97892</v>
+      </c>
+      <c r="H21">
+        <v>0.11688675229830409</v>
+      </c>
+      <c r="K21">
         <v>4800.5125840000001</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L21" s="21">
+        <v>0.14026410275796491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>3482.7120880000002</v>
+      </c>
+      <c r="B22" s="17">
+        <v>5.5272609899796663E-7</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3482.7120880000002</v>
+      </c>
+      <c r="D22" s="15">
+        <v>9.3509401838642994E-2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4690.3118400000003</v>
+      </c>
+      <c r="F22" s="7">
+        <v>7.3862353003851588E-7</v>
+      </c>
+      <c r="G22" s="21">
+        <v>4690.3118400000003</v>
+      </c>
+      <c r="H22">
+        <v>9.5847136884609344E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>4850.0450080000001</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6.7351336855091149E-7</v>
+      </c>
+      <c r="C23" s="17">
+        <v>4850.0450080000001</v>
+      </c>
+      <c r="D23" s="6">
+        <v>8.1820726608812858E-2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4910.1784239999997</v>
+      </c>
+      <c r="F23" s="7">
+        <v>7.5438809944547967E-7</v>
+      </c>
+      <c r="G23">
+        <v>4910.1784239999997</v>
+      </c>
+      <c r="H23">
+        <v>9.3509401838643272E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -6369,7 +7537,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -6380,4 +7548,2496 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559E98A4-1EE5-436C-8B5D-0D6379275E1D}">
+  <dimension ref="A1:O245"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="8">
+        <v>9.2494649999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>480181.9</v>
+      </c>
+      <c r="E2">
+        <v>1.1232715769499904</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1715.593552</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2">
+        <v>1.1232715769499904</v>
+      </c>
+      <c r="I2">
+        <v>1809.7269679999999</v>
+      </c>
+      <c r="K2">
+        <v>1.1232715769499904</v>
+      </c>
+      <c r="L2">
+        <v>1900.7269679999999</v>
+      </c>
+      <c r="N2" s="21">
+        <v>1.1232715769499904</v>
+      </c>
+      <c r="O2">
+        <v>1950.7269679999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>9.8660960000000006E-2</v>
+      </c>
+      <c r="C3">
+        <v>157512.29999999999</v>
+      </c>
+      <c r="E3">
+        <v>1.0671079981024907</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1783.3928080000001</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3">
+        <v>1.0671079981024907</v>
+      </c>
+      <c r="I3">
+        <v>1884.3928080000001</v>
+      </c>
+      <c r="K3">
+        <v>1.0671079981024907</v>
+      </c>
+      <c r="L3">
+        <v>1983.2593919999999</v>
+      </c>
+      <c r="N3" s="21">
+        <v>1.0671079981024907</v>
+      </c>
+      <c r="O3">
+        <v>2031.3928080000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.1048273</v>
+      </c>
+      <c r="C4">
+        <v>78906.039999999994</v>
+      </c>
+      <c r="E4">
+        <v>1.0109444192549912</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1863.0586479999999</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4">
+        <v>1.0109444192549912</v>
+      </c>
+      <c r="I4">
+        <v>1965.7918159999999</v>
+      </c>
+      <c r="K4">
+        <v>1.0109444192549912</v>
+      </c>
+      <c r="L4">
+        <v>2070.7918159999999</v>
+      </c>
+      <c r="N4" s="21">
+        <v>1.0109444192549912</v>
+      </c>
+      <c r="O4">
+        <v>2122.9252320000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.1109936</v>
+      </c>
+      <c r="C5">
+        <v>46105.29</v>
+      </c>
+      <c r="E5">
+        <v>0.95478084040749156</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1929.457656</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5">
+        <v>0.95478084040749156</v>
+      </c>
+      <c r="I5">
+        <v>2049.5910720000002</v>
+      </c>
+      <c r="K5">
+        <v>0.95478084040749156</v>
+      </c>
+      <c r="L5">
+        <v>2162.3242399999999</v>
+      </c>
+      <c r="N5" s="21">
+        <v>0.95478084040749156</v>
+      </c>
+      <c r="O5">
+        <v>2217.5910720000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.1171599</v>
+      </c>
+      <c r="C6">
+        <v>29315.15</v>
+      </c>
+      <c r="E6">
+        <v>0.898617261559992</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2020.1234959999999</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6">
+        <v>0.898617261559992</v>
+      </c>
+      <c r="I6">
+        <v>2147.2569119999998</v>
+      </c>
+      <c r="K6">
+        <v>0.898617261559992</v>
+      </c>
+      <c r="L6">
+        <v>2265.2569119999998</v>
+      </c>
+      <c r="N6" s="21">
+        <v>0.898617261559992</v>
+      </c>
+      <c r="O6">
+        <v>2327.1234960000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.1233262</v>
+      </c>
+      <c r="C7">
+        <v>19737.150000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.84245368271249244</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2108.7893359999998</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7">
+        <v>0.84245368271249244</v>
+      </c>
+      <c r="I7">
+        <v>2242.7893359999998</v>
+      </c>
+      <c r="K7">
+        <v>0.84245368271249244</v>
+      </c>
+      <c r="L7">
+        <v>2372.7893359999998</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0.84245368271249244</v>
+      </c>
+      <c r="O7">
+        <v>2439.6559200000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.12949250000000001</v>
+      </c>
+      <c r="C8">
+        <v>13898.79</v>
+      </c>
+      <c r="E8">
+        <v>0.78629010386499287</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2194.5885920000001</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8">
+        <v>0.78629010386499287</v>
+      </c>
+      <c r="I8">
+        <v>2345.3217599999998</v>
+      </c>
+      <c r="K8">
+        <v>0.78629010386499287</v>
+      </c>
+      <c r="L8">
+        <v>2488.4551759999999</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.78629010386499287</v>
+      </c>
+      <c r="O8">
+        <v>2561.5885920000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.1356588</v>
+      </c>
+      <c r="C9">
+        <v>10180.92</v>
+      </c>
+      <c r="E9">
+        <v>0.73012652501749342</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2296.1210160000001</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9">
+        <v>0.73012652501749342</v>
+      </c>
+      <c r="I9">
+        <v>2460.1210160000001</v>
+      </c>
+      <c r="K9">
+        <v>0.73012652501749342</v>
+      </c>
+      <c r="L9">
+        <v>2619.2544320000002</v>
+      </c>
+      <c r="N9" s="21">
+        <v>0.73012652501749342</v>
+      </c>
+      <c r="O9">
+        <v>2696.2544320000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.14182510000000001</v>
+      </c>
+      <c r="C10">
+        <v>7741.7820000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.67396294616999386</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2406.053688</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10">
+        <v>0.67396294616999386</v>
+      </c>
+      <c r="I10">
+        <v>2585.7868560000002</v>
+      </c>
+      <c r="K10">
+        <v>0.67396294616999386</v>
+      </c>
+      <c r="L10">
+        <v>2758.65344</v>
+      </c>
+      <c r="N10" s="21">
+        <v>0.67396294616999386</v>
+      </c>
+      <c r="O10">
+        <v>2848.7868560000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.1479914</v>
+      </c>
+      <c r="C11">
+        <v>6108.8959999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.6177993673224943</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2513.3192800000002</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11">
+        <v>0.6177993673224943</v>
+      </c>
+      <c r="I11">
+        <v>2717.586112</v>
+      </c>
+      <c r="K11">
+        <v>0.6177993673224943</v>
+      </c>
+      <c r="L11">
+        <v>2911.7195280000001</v>
+      </c>
+      <c r="N11" s="21">
+        <v>0.6177993673224943</v>
+      </c>
+      <c r="O11">
+        <v>3011.3192800000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.15415770000000001</v>
+      </c>
+      <c r="C12">
+        <v>5001.59</v>
+      </c>
+      <c r="E12">
+        <v>0.56163578847499462</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2619.2519520000001</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12">
+        <v>0.56163578847499462</v>
+      </c>
+      <c r="I12">
+        <v>2859.9851199999998</v>
+      </c>
+      <c r="K12">
+        <v>0.56163578847499462</v>
+      </c>
+      <c r="L12">
+        <v>3075.2519520000001</v>
+      </c>
+      <c r="N12" s="21">
+        <v>0.56163578847499462</v>
+      </c>
+      <c r="O12">
+        <v>3181.9851199999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.1603241</v>
+      </c>
+      <c r="C13">
+        <v>4245.7150000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.50547220962749517</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2676.6509599999999</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13">
+        <v>0.50547220962749517</v>
+      </c>
+      <c r="I13">
+        <v>3001.6509599999999</v>
+      </c>
+      <c r="K13">
+        <v>0.50547220962749517</v>
+      </c>
+      <c r="L13">
+        <v>3260.7843760000001</v>
+      </c>
+      <c r="N13" s="21">
+        <v>0.50547220962749517</v>
+      </c>
+      <c r="O13">
+        <v>3380.7843760000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.16649040000000001</v>
+      </c>
+      <c r="C14">
+        <v>3729.444</v>
+      </c>
+      <c r="E14">
+        <v>0.44930863077999572</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2680.717048</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14">
+        <v>0.44930863077999572</v>
+      </c>
+      <c r="I14">
+        <v>3146.5836319999999</v>
+      </c>
+      <c r="K14">
+        <v>0.44930863077999572</v>
+      </c>
+      <c r="L14">
+        <v>3451.1833839999999</v>
+      </c>
+      <c r="N14" s="21">
+        <v>0.44930863077999572</v>
+      </c>
+      <c r="O14">
+        <v>3594.4502160000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.1726567</v>
+      </c>
+      <c r="C15">
+        <v>3378.9630000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.39314505193249621</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2681.9826400000002</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15">
+        <v>0.39314505193249621</v>
+      </c>
+      <c r="I15">
+        <v>3285.1160559999998</v>
+      </c>
+      <c r="K15">
+        <v>0.39314505193249621</v>
+      </c>
+      <c r="L15">
+        <v>3638.7158079999999</v>
+      </c>
+      <c r="N15" s="21">
+        <v>0.39314505193249621</v>
+      </c>
+      <c r="O15">
+        <v>3819.849224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.17882300000000001</v>
+      </c>
+      <c r="C16">
+        <v>3144.444</v>
+      </c>
+      <c r="E16">
+        <v>0.33698147308499665</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2683.6484799999998</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16">
+        <v>0.33698147308499665</v>
+      </c>
+      <c r="I16">
+        <v>3358.781896</v>
+      </c>
+      <c r="K16">
+        <v>0.33698147308499665</v>
+      </c>
+      <c r="L16">
+        <v>3834.381648</v>
+      </c>
+      <c r="N16" s="21">
+        <v>0.33698147308499665</v>
+      </c>
+      <c r="O16">
+        <v>4049.6484799999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.18152180000000001</v>
+      </c>
+      <c r="C17">
+        <v>3069.1089999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.2808178942374972</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2686.1809039999998</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17">
+        <v>0.2808178942374972</v>
+      </c>
+      <c r="I17">
+        <v>3365.0474880000002</v>
+      </c>
+      <c r="K17">
+        <v>0.2808178942374972</v>
+      </c>
+      <c r="L17">
+        <v>3997.31432</v>
+      </c>
+      <c r="N17" s="21">
+        <v>0.2808178942374972</v>
+      </c>
+      <c r="O17">
+        <v>4271.4477360000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.4526308</v>
+      </c>
+      <c r="C18">
+        <v>3069.1089999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.22465431538999769</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2698.1135760000002</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18">
+        <v>0.22465431538999769</v>
+      </c>
+      <c r="I18">
+        <v>3368.1135760000002</v>
+      </c>
+      <c r="K18">
+        <v>0.22465431538999769</v>
+      </c>
+      <c r="L18">
+        <v>4118.1135759999997</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0.25273610481374781</v>
+      </c>
+      <c r="O18">
+        <v>4369.5138239999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.45630690000000002</v>
+      </c>
+      <c r="C19">
+        <v>3061.7860000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.19657252596624794</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2705.3130799999999</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19">
+        <v>0.1965725259662483</v>
+      </c>
+      <c r="I19">
+        <v>3375.7133279999998</v>
+      </c>
+      <c r="K19">
+        <v>0.16849073654249855</v>
+      </c>
+      <c r="L19">
+        <v>4268.6459999999997</v>
+      </c>
+      <c r="N19" s="21">
+        <v>0.22465431538999805</v>
+      </c>
+      <c r="O19">
+        <v>4476.4464959999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.46247319999999997</v>
+      </c>
+      <c r="C20">
+        <v>3049.26</v>
+      </c>
+      <c r="E20">
+        <v>0.16849073654249819</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2721.7794159999999</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20">
+        <v>0.16849073654249855</v>
+      </c>
+      <c r="I20">
+        <v>3385.5125840000001</v>
+      </c>
+      <c r="K20">
+        <v>0.14040894711874879</v>
+      </c>
+      <c r="L20">
+        <v>4772.8455039999999</v>
+      </c>
+      <c r="N20" s="21">
+        <v>0.1965725259662483</v>
+      </c>
+      <c r="O20">
+        <v>4593.912832</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.46863959999999999</v>
+      </c>
+      <c r="C21">
+        <v>3036.4589999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.14040894711874843</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2735.97892</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21">
+        <v>0.14040894711874879</v>
+      </c>
+      <c r="I21">
+        <v>3416.97892</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0.16849073654249855</v>
+      </c>
+      <c r="O21">
+        <v>4800.5125840000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.4748059</v>
+      </c>
+      <c r="C22">
+        <v>3023.4090000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.11232715769499869</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3482.7120880000002</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22">
+        <v>0.11513533663737399</v>
+      </c>
+      <c r="I22">
+        <v>4690.3118400000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0.48097220000000002</v>
+      </c>
+      <c r="C23">
+        <v>3010.1379999999999</v>
+      </c>
+      <c r="E23">
+        <v>9.8286262983124151E-2</v>
+      </c>
+      <c r="F23" s="17">
+        <v>4850.0450080000001</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23">
+        <v>0.11232715769499903</v>
+      </c>
+      <c r="I23">
+        <v>4910.1784239999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.48713849999999997</v>
+      </c>
+      <c r="C24">
+        <v>2996.6680000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.49330479999999999</v>
+      </c>
+      <c r="C25">
+        <v>2983.0230000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.4994711</v>
+      </c>
+      <c r="C26">
+        <v>2969.2249999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.50563740000000001</v>
+      </c>
+      <c r="C27">
+        <v>2955.2910000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.51180369999999997</v>
+      </c>
+      <c r="C28">
+        <v>2941.241</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.51797000000000004</v>
+      </c>
+      <c r="C29">
+        <v>2927.0909999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.52413639999999995</v>
+      </c>
+      <c r="C30">
+        <v>2912.857</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.53030259999999996</v>
+      </c>
+      <c r="C31">
+        <v>2898.5540000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.53646899999999997</v>
+      </c>
+      <c r="C32">
+        <v>2884.194</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.54263530000000004</v>
+      </c>
+      <c r="C33">
+        <v>2869.7919999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.5488016</v>
+      </c>
+      <c r="C34">
+        <v>2855.3560000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.55496789999999996</v>
+      </c>
+      <c r="C35">
+        <v>2840.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.56113420000000003</v>
+      </c>
+      <c r="C36">
+        <v>2826.433</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.56730049999999999</v>
+      </c>
+      <c r="C37">
+        <v>2811.9630000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.57346680000000005</v>
+      </c>
+      <c r="C38">
+        <v>2797.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.57963310000000001</v>
+      </c>
+      <c r="C39">
+        <v>2783.0520000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.58579950000000003</v>
+      </c>
+      <c r="C40">
+        <v>2768.625</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.59196570000000004</v>
+      </c>
+      <c r="C41">
+        <v>2754.2269999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.59813210000000006</v>
+      </c>
+      <c r="C42">
+        <v>2739.8629999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.60429840000000001</v>
+      </c>
+      <c r="C43">
+        <v>2725.54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.61046469999999997</v>
+      </c>
+      <c r="C44">
+        <v>2711.2620000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.61663100000000004</v>
+      </c>
+      <c r="C45">
+        <v>2697.0360000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.6227973</v>
+      </c>
+      <c r="C46">
+        <v>2682.864</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.62896359999999996</v>
+      </c>
+      <c r="C47">
+        <v>2668.7510000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.63512990000000002</v>
+      </c>
+      <c r="C48">
+        <v>2654.701</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.64129619999999998</v>
+      </c>
+      <c r="C49">
+        <v>2640.7179999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.64746250000000005</v>
+      </c>
+      <c r="C50">
+        <v>2626.8040000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.65362880000000001</v>
+      </c>
+      <c r="C51">
+        <v>2612.9630000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.65979520000000003</v>
+      </c>
+      <c r="C52">
+        <v>2599.1959999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.66596140000000004</v>
+      </c>
+      <c r="C53">
+        <v>2585.5070000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.67212780000000005</v>
+      </c>
+      <c r="C54">
+        <v>2571.8980000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0.67829410000000001</v>
+      </c>
+      <c r="C55">
+        <v>2558.37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0.68446039999999997</v>
+      </c>
+      <c r="C56">
+        <v>2544.9259999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.69062670000000004</v>
+      </c>
+      <c r="C57">
+        <v>2531.5659999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.696793</v>
+      </c>
+      <c r="C58">
+        <v>2518.2919999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.70295940000000001</v>
+      </c>
+      <c r="C59">
+        <v>2505.1060000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0.70912560000000002</v>
+      </c>
+      <c r="C60">
+        <v>2492.009</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0.71529200000000004</v>
+      </c>
+      <c r="C61">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0.7214583</v>
+      </c>
+      <c r="C62">
+        <v>2466.0830000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0.72762459999999995</v>
+      </c>
+      <c r="C63">
+        <v>2453.2559999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0.73379090000000002</v>
+      </c>
+      <c r="C64">
+        <v>2440.5210000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0.73995719999999998</v>
+      </c>
+      <c r="C65">
+        <v>2427.8780000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0.74612350000000005</v>
+      </c>
+      <c r="C66">
+        <v>2415.3270000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0.75228980000000001</v>
+      </c>
+      <c r="C67">
+        <v>2402.8690000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0.75845609999999997</v>
+      </c>
+      <c r="C68">
+        <v>2390.5050000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>0.76462240000000004</v>
+      </c>
+      <c r="C69">
+        <v>2378.2330000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0.77078869999999999</v>
+      </c>
+      <c r="C70">
+        <v>2366.0549999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>0.77695510000000001</v>
+      </c>
+      <c r="C71">
+        <v>2353.9690000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0.78312130000000002</v>
+      </c>
+      <c r="C72">
+        <v>2341.9780000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0.78928770000000004</v>
+      </c>
+      <c r="C73">
+        <v>2330.0790000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0.79545399999999999</v>
+      </c>
+      <c r="C74">
+        <v>2318.2719999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>0.80162029999999995</v>
+      </c>
+      <c r="C75">
+        <v>2306.5590000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>0.80778660000000002</v>
+      </c>
+      <c r="C76">
+        <v>2294.9380000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0.81395289999999998</v>
+      </c>
+      <c r="C77">
+        <v>2283.4090000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>0.82011920000000005</v>
+      </c>
+      <c r="C78">
+        <v>2271.9720000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0.82628550000000001</v>
+      </c>
+      <c r="C79">
+        <v>2260.6260000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>0.83245179999999996</v>
+      </c>
+      <c r="C80">
+        <v>2249.3710000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0.83861819999999998</v>
+      </c>
+      <c r="C81">
+        <v>2238.2069999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0.84478439999999999</v>
+      </c>
+      <c r="C82">
+        <v>2227.1320000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0.85095080000000001</v>
+      </c>
+      <c r="C83">
+        <v>2216.1469999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0.85711709999999997</v>
+      </c>
+      <c r="C84">
+        <v>2205.252</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>0.86328340000000003</v>
+      </c>
+      <c r="C85">
+        <v>2194.444</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0.86944969999999999</v>
+      </c>
+      <c r="C86">
+        <v>2183.7249999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0.87561599999999995</v>
+      </c>
+      <c r="C87">
+        <v>2173.0929999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0.88178230000000002</v>
+      </c>
+      <c r="C88">
+        <v>2162.547</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0.88794859999999998</v>
+      </c>
+      <c r="C89">
+        <v>2152.087</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0.89411490000000005</v>
+      </c>
+      <c r="C90">
+        <v>2141.7139999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0.90028129999999995</v>
+      </c>
+      <c r="C91">
+        <v>2131.424</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0.90644749999999996</v>
+      </c>
+      <c r="C92">
+        <v>2121.2190000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0.91261389999999998</v>
+      </c>
+      <c r="C93">
+        <v>2111.098</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0.91878009999999999</v>
+      </c>
+      <c r="C94">
+        <v>2101.0590000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0.9249465</v>
+      </c>
+      <c r="C95">
+        <v>2091.1030000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0.93111279999999996</v>
+      </c>
+      <c r="C96">
+        <v>2081.2280000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0.93727910000000003</v>
+      </c>
+      <c r="C97">
+        <v>2071.4340000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0.94344539999999999</v>
+      </c>
+      <c r="C98">
+        <v>2061.7199999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>0.94961169999999995</v>
+      </c>
+      <c r="C99">
+        <v>2052.085</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0.95577809999999996</v>
+      </c>
+      <c r="C100">
+        <v>2042.53</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>0.96194429999999997</v>
+      </c>
+      <c r="C101">
+        <v>2033.0519999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>0.96811069999999999</v>
+      </c>
+      <c r="C102">
+        <v>2023.652</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0.97427699999999995</v>
+      </c>
+      <c r="C103">
+        <v>2014.328</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>0.98044330000000002</v>
+      </c>
+      <c r="C104">
+        <v>2005.08</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>0.98660959999999998</v>
+      </c>
+      <c r="C105">
+        <v>1995.9079999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>0.99277590000000004</v>
+      </c>
+      <c r="C106">
+        <v>1986.81</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>0.9989422</v>
+      </c>
+      <c r="C107">
+        <v>1977.7860000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>1.0051079999999999</v>
+      </c>
+      <c r="C108">
+        <v>1968.835</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>1.0112749999999999</v>
+      </c>
+      <c r="C109">
+        <v>1959.9559999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>1.017441</v>
+      </c>
+      <c r="C110">
+        <v>1951.15</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>1.0236069999999999</v>
+      </c>
+      <c r="C111">
+        <v>1942.414</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>1.029774</v>
+      </c>
+      <c r="C112">
+        <v>1933.749</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>1.0359400000000001</v>
+      </c>
+      <c r="C113">
+        <v>1925.153</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>1.042106</v>
+      </c>
+      <c r="C114">
+        <v>1916.627</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>1.048273</v>
+      </c>
+      <c r="C115">
+        <v>1908.1690000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>1.0544389999999999</v>
+      </c>
+      <c r="C116">
+        <v>1899.778</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>1.060605</v>
+      </c>
+      <c r="C117">
+        <v>1891.4549999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>1.0667720000000001</v>
+      </c>
+      <c r="C118">
+        <v>1883.1980000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>1.0729379999999999</v>
+      </c>
+      <c r="C119">
+        <v>1875.0070000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>1.0791040000000001</v>
+      </c>
+      <c r="C120">
+        <v>1866.88</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>1.0852710000000001</v>
+      </c>
+      <c r="C121">
+        <v>1858.818</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>1.091437</v>
+      </c>
+      <c r="C122">
+        <v>1850.82</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>1.0976030000000001</v>
+      </c>
+      <c r="C123">
+        <v>1842.885</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>1.103769</v>
+      </c>
+      <c r="C124">
+        <v>1835.0129999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>1.109936</v>
+      </c>
+      <c r="C125">
+        <v>1827.202</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>1.1161019999999999</v>
+      </c>
+      <c r="C126">
+        <v>1819.453</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>1.122268</v>
+      </c>
+      <c r="C127">
+        <v>1811.7639999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>1.1284350000000001</v>
+      </c>
+      <c r="C128">
+        <v>1804.135</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>1.134601</v>
+      </c>
+      <c r="C129">
+        <v>1796.566</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>1.1407670000000001</v>
+      </c>
+      <c r="C130">
+        <v>1789.0550000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>1.1469339999999999</v>
+      </c>
+      <c r="C131">
+        <v>1781.6030000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>1.1531</v>
+      </c>
+      <c r="C132">
+        <v>1774.2080000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>1.1592659999999999</v>
+      </c>
+      <c r="C133">
+        <v>1766.87</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>1.1654329999999999</v>
+      </c>
+      <c r="C134">
+        <v>1759.5889999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>1.1715990000000001</v>
+      </c>
+      <c r="C135">
+        <v>1752.3630000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1.177765</v>
+      </c>
+      <c r="C136">
+        <v>1745.193</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>1.1839310000000001</v>
+      </c>
+      <c r="C137">
+        <v>1738.077</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>1.1900980000000001</v>
+      </c>
+      <c r="C138">
+        <v>1731.0160000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>1.196264</v>
+      </c>
+      <c r="C139">
+        <v>1724.009</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>1.2024300000000001</v>
+      </c>
+      <c r="C140">
+        <v>1717.0540000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>1.2085969999999999</v>
+      </c>
+      <c r="C141">
+        <v>1710.152</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>1.214763</v>
+      </c>
+      <c r="C142">
+        <v>1703.3019999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>1.2209289999999999</v>
+      </c>
+      <c r="C143">
+        <v>1696.5029999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>1.227096</v>
+      </c>
+      <c r="C144">
+        <v>1689.7560000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>1.2332620000000001</v>
+      </c>
+      <c r="C145">
+        <v>1683.059</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>1.239428</v>
+      </c>
+      <c r="C146">
+        <v>1676.412</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>1.245595</v>
+      </c>
+      <c r="C147">
+        <v>1669.8140000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>1.2517609999999999</v>
+      </c>
+      <c r="C148">
+        <v>1663.2650000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>1.257927</v>
+      </c>
+      <c r="C149">
+        <v>1656.7650000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>1.2640940000000001</v>
+      </c>
+      <c r="C150">
+        <v>1650.3119999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>1.2702599999999999</v>
+      </c>
+      <c r="C151">
+        <v>1643.9069999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>1.2764260000000001</v>
+      </c>
+      <c r="C152">
+        <v>1637.549</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>1.282592</v>
+      </c>
+      <c r="C153">
+        <v>1631.2380000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>1.288759</v>
+      </c>
+      <c r="C154">
+        <v>1624.973</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>1.2949250000000001</v>
+      </c>
+      <c r="C155">
+        <v>1618.7529999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>1.301091</v>
+      </c>
+      <c r="C156">
+        <v>1612.578</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>1.307258</v>
+      </c>
+      <c r="C157">
+        <v>1606.4480000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>1.3134239999999999</v>
+      </c>
+      <c r="C158">
+        <v>1600.3630000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>1.31959</v>
+      </c>
+      <c r="C159">
+        <v>1594.3209999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>1.3257570000000001</v>
+      </c>
+      <c r="C160">
+        <v>1588.3219999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>1.331923</v>
+      </c>
+      <c r="C161">
+        <v>1582.366</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>1.3380890000000001</v>
+      </c>
+      <c r="C162">
+        <v>1576.453</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>1.3442559999999999</v>
+      </c>
+      <c r="C163">
+        <v>1570.5820000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>1.350422</v>
+      </c>
+      <c r="C164">
+        <v>1564.7529999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>1.3565879999999999</v>
+      </c>
+      <c r="C165">
+        <v>1558.9649999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>1.362754</v>
+      </c>
+      <c r="C166">
+        <v>1553.2170000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>1.3689210000000001</v>
+      </c>
+      <c r="C167">
+        <v>1547.51</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>1.3750869999999999</v>
+      </c>
+      <c r="C168">
+        <v>1541.8440000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>1.3812530000000001</v>
+      </c>
+      <c r="C169">
+        <v>1536.2159999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>1.3874200000000001</v>
+      </c>
+      <c r="C170">
+        <v>1530.6289999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>1.393586</v>
+      </c>
+      <c r="C171">
+        <v>1525.079</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>1.3997520000000001</v>
+      </c>
+      <c r="C172">
+        <v>1519.569</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>1.4059189999999999</v>
+      </c>
+      <c r="C173">
+        <v>1514.096</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>1.412085</v>
+      </c>
+      <c r="C174">
+        <v>1508.662</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>1.4182509999999999</v>
+      </c>
+      <c r="C175">
+        <v>1503.2650000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>1.424418</v>
+      </c>
+      <c r="C176">
+        <v>1497.904</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>1.4305840000000001</v>
+      </c>
+      <c r="C177">
+        <v>1492.5809999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>1.43675</v>
+      </c>
+      <c r="C178">
+        <v>1487.2929999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>1.442917</v>
+      </c>
+      <c r="C179">
+        <v>1482.0419999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>1.4490829999999999</v>
+      </c>
+      <c r="C180">
+        <v>1476.826</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>1.455249</v>
+      </c>
+      <c r="C181">
+        <v>1471.646</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>1.4614149999999999</v>
+      </c>
+      <c r="C182">
+        <v>1466.5</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>1.4675819999999999</v>
+      </c>
+      <c r="C183">
+        <v>1461.39</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>1.4737480000000001</v>
+      </c>
+      <c r="C184">
+        <v>1456.3130000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>1.479914</v>
+      </c>
+      <c r="C185">
+        <v>1451.27</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>1.486081</v>
+      </c>
+      <c r="C186">
+        <v>1446.261</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>1.4922470000000001</v>
+      </c>
+      <c r="C187">
+        <v>1441.2850000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>1.498413</v>
+      </c>
+      <c r="C188">
+        <v>1436.3430000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>1.50458</v>
+      </c>
+      <c r="C189">
+        <v>1431.433</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>1.5107459999999999</v>
+      </c>
+      <c r="C190">
+        <v>1426.5550000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>1.516912</v>
+      </c>
+      <c r="C191">
+        <v>1421.7090000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>1.5230790000000001</v>
+      </c>
+      <c r="C192">
+        <v>1416.895</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>1.529245</v>
+      </c>
+      <c r="C193">
+        <v>1412.1130000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>1.5354110000000001</v>
+      </c>
+      <c r="C194">
+        <v>1407.3620000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>1.541577</v>
+      </c>
+      <c r="C195">
+        <v>1402.6410000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>1.547744</v>
+      </c>
+      <c r="C196">
+        <v>1397.952</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>1.5539099999999999</v>
+      </c>
+      <c r="C197">
+        <v>1393.2919999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>1.560076</v>
+      </c>
+      <c r="C198">
+        <v>1388.663</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>1.5662430000000001</v>
+      </c>
+      <c r="C199">
+        <v>1384.0630000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>1.5724089999999999</v>
+      </c>
+      <c r="C200">
+        <v>1379.4929999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>1.5785750000000001</v>
+      </c>
+      <c r="C201">
+        <v>1374.952</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>1.5847420000000001</v>
+      </c>
+      <c r="C202">
+        <v>1370.44</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>1.590908</v>
+      </c>
+      <c r="C203">
+        <v>1365.9570000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>1.5970740000000001</v>
+      </c>
+      <c r="C204">
+        <v>1361.502</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>1.6032409999999999</v>
+      </c>
+      <c r="C205">
+        <v>1357.075</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>1.609407</v>
+      </c>
+      <c r="C206">
+        <v>1352.6769999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>1.6155729999999999</v>
+      </c>
+      <c r="C207">
+        <v>1348.3050000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>1.62174</v>
+      </c>
+      <c r="C208">
+        <v>1343.962</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>1.6279060000000001</v>
+      </c>
+      <c r="C209">
+        <v>1339.645</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>1.634072</v>
+      </c>
+      <c r="C210">
+        <v>1335.355</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>1.6402380000000001</v>
+      </c>
+      <c r="C211">
+        <v>1331.0920000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>1.6464049999999999</v>
+      </c>
+      <c r="C212">
+        <v>1326.856</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>1.652571</v>
+      </c>
+      <c r="C213">
+        <v>1322.645</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>1.6587369999999999</v>
+      </c>
+      <c r="C214">
+        <v>1318.461</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>1.6649039999999999</v>
+      </c>
+      <c r="C215">
+        <v>1314.3019999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>1.6710700000000001</v>
+      </c>
+      <c r="C216">
+        <v>1310.1690000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>1.6772359999999999</v>
+      </c>
+      <c r="C217">
+        <v>1306.0609999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>1.683403</v>
+      </c>
+      <c r="C218">
+        <v>1301.9780000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>1.6895690000000001</v>
+      </c>
+      <c r="C219">
+        <v>1297.92</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>1.695735</v>
+      </c>
+      <c r="C220">
+        <v>1293.886</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>1.701902</v>
+      </c>
+      <c r="C221">
+        <v>1289.877</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>1.7080679999999999</v>
+      </c>
+      <c r="C222">
+        <v>1285.893</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>1.714234</v>
+      </c>
+      <c r="C223">
+        <v>1281.932</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>1.7203999999999999</v>
+      </c>
+      <c r="C224">
+        <v>1277.9949999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>1.726567</v>
+      </c>
+      <c r="C225">
+        <v>1274.0809999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>1.7327330000000001</v>
+      </c>
+      <c r="C226">
+        <v>1270.191</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>1.738899</v>
+      </c>
+      <c r="C227">
+        <v>1266.3240000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>1.745066</v>
+      </c>
+      <c r="C228">
+        <v>1262.479</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>1.7512319999999999</v>
+      </c>
+      <c r="C229">
+        <v>1258.6579999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>1.757398</v>
+      </c>
+      <c r="C230">
+        <v>1254.8589999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>1.763565</v>
+      </c>
+      <c r="C231">
+        <v>1251.0830000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>1.7697309999999999</v>
+      </c>
+      <c r="C232">
+        <v>1247.329</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>1.7758970000000001</v>
+      </c>
+      <c r="C233">
+        <v>1243.596</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>1.7820640000000001</v>
+      </c>
+      <c r="C234">
+        <v>1239.886</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>1.78823</v>
+      </c>
+      <c r="C235">
+        <v>1236.1969999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>1.7943960000000001</v>
+      </c>
+      <c r="C236">
+        <v>1232.53</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>1.8005629999999999</v>
+      </c>
+      <c r="C237">
+        <v>1228.883</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>1.806729</v>
+      </c>
+      <c r="C238">
+        <v>1225.258</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>1.8128949999999999</v>
+      </c>
+      <c r="C239">
+        <v>1221.654</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>1.819061</v>
+      </c>
+      <c r="C240">
+        <v>1218.07</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>1.8252280000000001</v>
+      </c>
+      <c r="C241">
+        <v>1214.5070000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>1.831394</v>
+      </c>
+      <c r="C242">
+        <v>1210.9649999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>1.8375600000000001</v>
+      </c>
+      <c r="C243">
+        <v>1207.442</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>1.8437269999999999</v>
+      </c>
+      <c r="C244">
+        <v>1203.94</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>1.849893</v>
+      </c>
+      <c r="C245">
+        <v>1200.4580000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>